--- a/benchmark_θqpso.xlsx
+++ b/benchmark_θqpso.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.00010904629679537618</v>
+        <v>0.0011011153887203985</v>
       </c>
       <c r="B2">
         <v>53454</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0016515759246439783</v>
+        <v>0.0013519233757868943</v>
       </c>
       <c r="B3">
         <v>53454</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5.78559155565e-5</v>
+        <v>0.00014370307533537316</v>
       </c>
       <c r="B4">
         <v>53454</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.00246270264596358</v>
+        <v>0.0012349037595026325</v>
       </c>
       <c r="B5">
         <v>53454</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.000441590232898694</v>
+        <v>0.0001231279817403406</v>
       </c>
       <c r="B6">
         <v>53454</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.000210821366703833</v>
+        <v>0.00032970412336137846</v>
       </c>
       <c r="B7">
         <v>53454</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.00041667006724389844</v>
+        <v>0.0002772579335831294</v>
       </c>
       <c r="B8">
         <v>53454</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0013516552368388706</v>
+        <v>0.0029552615270489525</v>
       </c>
       <c r="B9">
         <v>53454</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.0005166541563035018</v>
+        <v>0.002165665732969866</v>
       </c>
       <c r="B10">
         <v>53454</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.00023244734612701956</v>
+        <v>9.978318880461343e-5</v>
       </c>
       <c r="B11">
         <v>53454</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.006456673723019803</v>
+        <v>0.00039525066889461053</v>
       </c>
       <c r="B12">
         <v>53454</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.012921267825031283</v>
+        <v>0.0009504854237573053</v>
       </c>
       <c r="B13">
         <v>53454</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.00024768938142843045</v>
+        <v>0.00273513157062792</v>
       </c>
       <c r="B14">
         <v>53454</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0006443747078904026</v>
+        <v>0.0017292013759569076</v>
       </c>
       <c r="B15">
         <v>53454</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0011658678633605583</v>
+        <v>0.0011631291635425985</v>
       </c>
       <c r="B16">
         <v>53454</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.0013329591511301304</v>
+        <v>0.0056762063703381035</v>
       </c>
       <c r="B17">
         <v>53454</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.00011305195142815428</v>
+        <v>0.004189275780902328</v>
       </c>
       <c r="B18">
         <v>53454</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0018458943595003863</v>
+        <v>0.000442336209337263</v>
       </c>
       <c r="B19">
         <v>53454</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0012402177251359847</v>
+        <v>0.0005204390907253771</v>
       </c>
       <c r="B20">
         <v>53454</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.0018743959232005232</v>
+        <v>0.0001913010430618348</v>
       </c>
       <c r="B21">
         <v>53454</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.002365636244362997</v>
+        <v>0.0006083850174274145</v>
       </c>
       <c r="B22">
         <v>53454</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.0001371519248045086</v>
+        <v>0.00021062386844790555</v>
       </c>
       <c r="B23">
         <v>53454</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.00035748745384135645</v>
+        <v>0.0004465786463558777</v>
       </c>
       <c r="B24">
         <v>53454</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.00022661183065921612</v>
+        <v>0.0029547619818075595</v>
       </c>
       <c r="B25">
         <v>53454</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.002302969026631126</v>
+        <v>0.0030893662048372267</v>
       </c>
       <c r="B26">
         <v>53454</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.000652663458073634</v>
+        <v>0.001242969842708319</v>
       </c>
       <c r="B27">
         <v>53454</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>9.660513859358337e-5</v>
+        <v>0.00025197977799503964</v>
       </c>
       <c r="B28">
         <v>53454</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.0018910341946264334</v>
+        <v>0.00026970713624440595</v>
       </c>
       <c r="B29">
         <v>53454</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.0015422535212080278</v>
+        <v>0.00026073717065453036</v>
       </c>
       <c r="B30">
         <v>53454</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0007568238657811792</v>
+        <v>0.00013837520082406873</v>
       </c>
       <c r="B31">
         <v>53454</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.001002958541179366</v>
+        <v>0.0006595370673203658</v>
       </c>
       <c r="B32">
         <v>53454</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.0014146094014040739</v>
+        <v>0.0006986375416565451</v>
       </c>
       <c r="B33">
         <v>53454</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.00015555044261506435</v>
+        <v>0.002061861960480354</v>
       </c>
       <c r="B34">
         <v>53454</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.001094750955850913</v>
+        <v>0.00013868162647444115</v>
       </c>
       <c r="B35">
         <v>53454</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.0007517353155816597</v>
+        <v>0.0035166409347885297</v>
       </c>
       <c r="B36">
         <v>53454</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.00012124954422907887</v>
+        <v>0.00022828573276765772</v>
       </c>
       <c r="B37">
         <v>53454</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.0004386127419814311</v>
+        <v>0.0006524775158744899</v>
       </c>
       <c r="B38">
         <v>53454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.0003352540758779655</v>
+        <v>0.0004273855693482407</v>
       </c>
       <c r="B39">
         <v>53454</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.0005954638784729006</v>
+        <v>0.0023640599714985634</v>
       </c>
       <c r="B40">
         <v>53454</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0004448951043517027</v>
+        <v>0.0019963808963639022</v>
       </c>
       <c r="B41">
         <v>53454</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.0003288044984268339</v>
+        <v>0.00043365688595677315</v>
       </c>
       <c r="B42">
         <v>53454</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4.007038190805962e-5</v>
+        <v>0.0007391198968862533</v>
       </c>
       <c r="B43">
         <v>53454</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.00021364089055414531</v>
+        <v>0.010946440069995133</v>
       </c>
       <c r="B44">
         <v>53454</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.0003277724842778618</v>
+        <v>2.611310146526697e-5</v>
       </c>
       <c r="B45">
         <v>53454</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.00012502132896633666</v>
+        <v>0.00019309265944978055</v>
       </c>
       <c r="B46">
         <v>53454</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.0016473374514760415</v>
+        <v>0.0017345869575768175</v>
       </c>
       <c r="B47">
         <v>53454</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.0003685245341722047</v>
+        <v>7.049801005852444e-5</v>
       </c>
       <c r="B48">
         <v>53454</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.012181138967397517</v>
+        <v>0.0005970972055406242</v>
       </c>
       <c r="B49">
         <v>53454</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.0005550866171415989</v>
+        <v>0.0021939822597751256</v>
       </c>
       <c r="B50">
         <v>53454</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.00012691694314003062</v>
+        <v>0.0003435235696170054</v>
       </c>
       <c r="B51">
         <v>53454</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.016897646616472452</v>
+        <v>0.0001740523797959028</v>
       </c>
       <c r="B52">
         <v>53454</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.00012858549846887324</v>
+        <v>0.0006039399132483317</v>
       </c>
       <c r="B53">
         <v>53454</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8.534679543782279e-5</v>
+        <v>0.0006678510823724209</v>
       </c>
       <c r="B54">
         <v>53454</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.00024202262824758248</v>
+        <v>0.00024833692291775257</v>
       </c>
       <c r="B55">
         <v>53454</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.0004557766426812571</v>
+        <v>0.0006355508457997853</v>
       </c>
       <c r="B56">
         <v>53454</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.002367410833099716</v>
+        <v>0.0007842395088827271</v>
       </c>
       <c r="B57">
         <v>53454</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.002757202044475472</v>
+        <v>0.0005182989369129486</v>
       </c>
       <c r="B58">
         <v>53454</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.0003658428600403843</v>
+        <v>0.0002232377806366864</v>
       </c>
       <c r="B59">
         <v>53454</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.0007840698756969473</v>
+        <v>0.00036021525216586587</v>
       </c>
       <c r="B60">
         <v>53454</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.00010358742578813249</v>
+        <v>0.0004247034359203004</v>
       </c>
       <c r="B61">
         <v>53454</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.0011864723086613743</v>
+        <v>0.0001291411806458758</v>
       </c>
       <c r="B62">
         <v>53454</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.0018350390605139505</v>
+        <v>0.000666994633339536</v>
       </c>
       <c r="B63">
         <v>53454</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.00036796617293572515</v>
+        <v>0.0008552237245603928</v>
       </c>
       <c r="B64">
         <v>53454</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.0006699927444227271</v>
+        <v>0.000594510657397542</v>
       </c>
       <c r="B65">
         <v>53454</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.0005467938063261484</v>
+        <v>0.0003443314031621956</v>
       </c>
       <c r="B66">
         <v>53454</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.0002535397494996759</v>
+        <v>0.00044045748456643147</v>
       </c>
       <c r="B67">
         <v>53454</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.0010119220964193083</v>
+        <v>0.0012433791412032541</v>
       </c>
       <c r="B68">
         <v>53454</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.00012351288841973342</v>
+        <v>0.0008976034583693758</v>
       </c>
       <c r="B69">
         <v>53454</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.0005027898259783686</v>
+        <v>0.00046910200684945974</v>
       </c>
       <c r="B70">
         <v>53454</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.0001427764479455397</v>
+        <v>0.00029014788342091686</v>
       </c>
       <c r="B71">
         <v>53454</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.0001283347162979411</v>
+        <v>0.00023903107714716285</v>
       </c>
       <c r="B72">
         <v>53454</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.00025022396367876666</v>
+        <v>0.0005873647701547372</v>
       </c>
       <c r="B73">
         <v>53454</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.0009359780392584058</v>
+        <v>0.00011902652088675788</v>
       </c>
       <c r="B74">
         <v>53454</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.00014472675191063025</v>
+        <v>0.00032943849631444623</v>
       </c>
       <c r="B75">
         <v>53454</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7.388623536338441e-5</v>
+        <v>0.001986037689238456</v>
       </c>
       <c r="B76">
         <v>53454</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.00023562043795115133</v>
+        <v>0.0005205044874198297</v>
       </c>
       <c r="B77">
         <v>53454</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.00020861893893854978</v>
+        <v>0.0012564394599511922</v>
       </c>
       <c r="B78">
         <v>53454</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.0010430064059373508</v>
+        <v>0.0035465459023540724</v>
       </c>
       <c r="B79">
         <v>53454</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.0006023230597389824</v>
+        <v>0.0011680871994385175</v>
       </c>
       <c r="B80">
         <v>53454</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.0023236147559256843</v>
+        <v>9.992182940201714e-5</v>
       </c>
       <c r="B81">
         <v>53454</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.00016862848018354526</v>
+        <v>0.0002055473976897553</v>
       </c>
       <c r="B82">
         <v>53454</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.0011412056232981405</v>
+        <v>0.00017126140415796745</v>
       </c>
       <c r="B83">
         <v>53454</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.00041079864718107406</v>
+        <v>0.00034090900473256257</v>
       </c>
       <c r="B84">
         <v>53454</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.00012822585959776123</v>
+        <v>0.002195076555957213</v>
       </c>
       <c r="B85">
         <v>53454</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.00045555547131017764</v>
+        <v>0.001106082999075826</v>
       </c>
       <c r="B86">
         <v>53454</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.00015680699926415035</v>
+        <v>0.000339839965667999</v>
       </c>
       <c r="B87">
         <v>53454</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.008444965260753865</v>
+        <v>0.0006015076089806589</v>
       </c>
       <c r="B88">
         <v>53454</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.0002191824062215824</v>
+        <v>0.004492026731536775</v>
       </c>
       <c r="B89">
         <v>53454</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.0008371097150289232</v>
+        <v>0.004224669776237835</v>
       </c>
       <c r="B90">
         <v>53454</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.0006431577142964835</v>
+        <v>0.0016697446900086365</v>
       </c>
       <c r="B91">
         <v>53454</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.00032913183789035327</v>
+        <v>0.0003586626484968638</v>
       </c>
       <c r="B92">
         <v>53454</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.0006688149118796716</v>
+        <v>0.0003208084303955712</v>
       </c>
       <c r="B93">
         <v>53454</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.0011634121022625927</v>
+        <v>0.0003630307638661833</v>
       </c>
       <c r="B94">
         <v>53454</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.0007215484255606409</v>
+        <v>0.0005376403170962712</v>
       </c>
       <c r="B95">
         <v>53454</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.0011364546762166609</v>
+        <v>0.0008878528810931333</v>
       </c>
       <c r="B96">
         <v>53454</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.021541341856956987</v>
+        <v>0.0014542971416830067</v>
       </c>
       <c r="B97">
         <v>53454</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.005607739130520085</v>
+        <v>0.00034122534892225503</v>
       </c>
       <c r="B98">
         <v>53454</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.00017050062421564063</v>
+        <v>0.0003137762323051921</v>
       </c>
       <c r="B99">
         <v>53454</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.00017972035080563562</v>
+        <v>0.00030590409209443474</v>
       </c>
       <c r="B100">
         <v>53454</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.00022609547938898835</v>
+        <v>0.001680645984415766</v>
       </c>
       <c r="B101">
         <v>53454</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>56.54688264423544</v>
+        <v>127.23218394564037</v>
       </c>
       <c r="B2">
         <v>196415</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>141.36719197584898</v>
+        <v>98.9570356543154</v>
       </c>
       <c r="B3">
         <v>196415</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>212.0507874353989</v>
+        <v>226.1875047877254</v>
       </c>
       <c r="B4">
         <v>196415</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>141.36719247985366</v>
+        <v>155.5039095334539</v>
       </c>
       <c r="B5">
         <v>196415</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>141.36719165686577</v>
+        <v>113.09375447544107</v>
       </c>
       <c r="B6">
         <v>196415</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>155.50390973747653</v>
+        <v>155.5039140982724</v>
       </c>
       <c r="B7">
         <v>196415</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>70.68369591634496</v>
+        <v>183.7777507176786</v>
       </c>
       <c r="B8">
         <v>196415</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>127.23047144347947</v>
+        <v>155.50390955609237</v>
       </c>
       <c r="B9">
         <v>196415</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>98.95706323477998</v>
+        <v>127.2304722821541</v>
       </c>
       <c r="B10">
         <v>196415</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>169.64308369829678</v>
+        <v>141.3671908748188</v>
       </c>
       <c r="B11">
         <v>196415</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>127.23056722876436</v>
+        <v>84.82031429097151</v>
       </c>
       <c r="B12">
         <v>196415</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>98.95703338746944</v>
+        <v>84.82031431453811</v>
       </c>
       <c r="B13">
         <v>196415</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>127.23056665903323</v>
+        <v>155.5039098242405</v>
       </c>
       <c r="B14">
         <v>196415</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>98.95716620441999</v>
+        <v>113.09377383375136</v>
       </c>
       <c r="B15">
         <v>196415</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>42.41015714549167</v>
+        <v>212.05078577678705</v>
       </c>
       <c r="B16">
         <v>196415</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>113.09375242142528</v>
+        <v>113.09375293262883</v>
       </c>
       <c r="B17">
         <v>196415</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>155.50390955278226</v>
+        <v>155.50390989864763</v>
       </c>
       <c r="B18">
         <v>196415</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>141.36763653026537</v>
+        <v>141.36719049704652</v>
       </c>
       <c r="B19">
         <v>196415</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>113.09375244841453</v>
+        <v>183.77734807507795</v>
       </c>
       <c r="B20">
         <v>196415</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>169.64063588096064</v>
+        <v>127.2304716283113</v>
       </c>
       <c r="B21">
         <v>196415</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>155.50390986875027</v>
+        <v>56.546876239836365</v>
       </c>
       <c r="B22">
         <v>196415</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>197.91406867349133</v>
+        <v>127.23047301226688</v>
       </c>
       <c r="B23">
         <v>196415</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>197.91406668595528</v>
+        <v>127.23381451000364</v>
       </c>
       <c r="B24">
         <v>196415</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>70.6835956782536</v>
+        <v>141.36719051878185</v>
       </c>
       <c r="B25">
         <v>196415</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>155.5039095678717</v>
+        <v>169.64079306759163</v>
       </c>
       <c r="B26">
         <v>196415</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>70.68359546760212</v>
+        <v>183.77734770826055</v>
       </c>
       <c r="B27">
         <v>196415</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>169.64063038756558</v>
+        <v>127.23054566122255</v>
       </c>
       <c r="B28">
         <v>196415</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>197.9141012951536</v>
+        <v>56.546876455590336</v>
       </c>
       <c r="B29">
         <v>196415</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>155.50391205487313</v>
+        <v>169.64062899352803</v>
       </c>
       <c r="B30">
         <v>196415</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>127.23047143859935</v>
+        <v>155.503910021999</v>
       </c>
       <c r="B31">
         <v>196415</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>113.09379935051925</v>
+        <v>127.23047176297814</v>
       </c>
       <c r="B32">
         <v>196415</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>155.50390959438414</v>
+        <v>155.5039102292617</v>
       </c>
       <c r="B33">
         <v>196415</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>155.5039095467664</v>
+        <v>141.36719052939588</v>
       </c>
       <c r="B34">
         <v>196415</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>98.95703334283303</v>
+        <v>212.0507857373725</v>
       </c>
       <c r="B35">
         <v>196415</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>70.68359525268875</v>
+        <v>84.82031624626552</v>
       </c>
       <c r="B36">
         <v>196415</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>127.23047218529337</v>
+        <v>113.09390779718478</v>
       </c>
       <c r="B37">
         <v>196415</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>141.3671906828822</v>
+        <v>113.09375240406007</v>
       </c>
       <c r="B38">
         <v>196415</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>127.23047164439026</v>
+        <v>155.5039189166896</v>
       </c>
       <c r="B39">
         <v>196415</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>70.68360062669944</v>
+        <v>155.50392828780218</v>
       </c>
       <c r="B40">
         <v>196415</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>183.77735280334605</v>
+        <v>169.6406383353842</v>
       </c>
       <c r="B41">
         <v>196415</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>56.54687624515918</v>
+        <v>183.77734799105883</v>
       </c>
       <c r="B42">
         <v>196415</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>98.95703351843304</v>
+        <v>141.3673137509918</v>
       </c>
       <c r="B43">
         <v>196415</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>113.09383678129097</v>
+        <v>113.09375247086518</v>
       </c>
       <c r="B44">
         <v>196415</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>197.91406667890578</v>
+        <v>212.05079096427698</v>
       </c>
       <c r="B45">
         <v>196415</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>141.36719065007924</v>
+        <v>70.68359705593048</v>
       </c>
       <c r="B46">
         <v>196415</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>70.68359529584768</v>
+        <v>113.09376385658061</v>
       </c>
       <c r="B47">
         <v>196415</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>155.5039110040966</v>
+        <v>98.95703339152897</v>
       </c>
       <c r="B48">
         <v>196415</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>98.95703334067412</v>
+        <v>127.23047143750227</v>
       </c>
       <c r="B49">
         <v>196415</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>141.36719055249569</v>
+        <v>113.09389046876777</v>
       </c>
       <c r="B50">
         <v>196415</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>155.5039252033689</v>
+        <v>84.82031688198913</v>
       </c>
       <c r="B51">
         <v>196415</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>113.09375367118491</v>
+        <v>155.50390954463091</v>
       </c>
       <c r="B52">
         <v>196415</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>127.23047146273439</v>
+        <v>127.23049010301838</v>
       </c>
       <c r="B53">
         <v>196415</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>141.36719058091649</v>
+        <v>155.5039119350281</v>
       </c>
       <c r="B54">
         <v>196415</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>127.23047164339528</v>
+        <v>169.640628582119</v>
       </c>
       <c r="B55">
         <v>196415</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>70.68367827799534</v>
+        <v>98.95703337108034</v>
       </c>
       <c r="B56">
         <v>196415</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>113.09417803207816</v>
+        <v>98.9570333421616</v>
       </c>
       <c r="B57">
         <v>196415</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>84.82031429445806</v>
+        <v>155.50390956642514</v>
       </c>
       <c r="B58">
         <v>196415</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>127.23047145306145</v>
+        <v>113.0937524386145</v>
       </c>
       <c r="B59">
         <v>196415</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>98.95705602228418</v>
+        <v>169.640654522585</v>
       </c>
       <c r="B60">
         <v>196415</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>183.77735569250945</v>
+        <v>127.23047204664545</v>
       </c>
       <c r="B61">
         <v>196415</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>169.64062971113162</v>
+        <v>141.36719128561026</v>
       </c>
       <c r="B62">
         <v>196415</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>197.91471956207897</v>
+        <v>212.05078578389953</v>
       </c>
       <c r="B63">
         <v>196415</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>127.23047287583836</v>
+        <v>155.503909555051</v>
       </c>
       <c r="B64">
         <v>196415</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>98.95703336153042</v>
+        <v>56.546895736857095</v>
       </c>
       <c r="B65">
         <v>196415</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>70.68400981577497</v>
+        <v>70.68359526250629</v>
       </c>
       <c r="B66">
         <v>196415</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>155.50411472992437</v>
+        <v>84.82031453773811</v>
       </c>
       <c r="B67">
         <v>196415</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>127.2304789128591</v>
+        <v>98.957033491321</v>
       </c>
       <c r="B68">
         <v>196415</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>169.64062858286525</v>
+        <v>113.09375252622226</v>
       </c>
       <c r="B69">
         <v>196415</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>155.50390963154678</v>
+        <v>113.09375824769768</v>
       </c>
       <c r="B70">
         <v>196415</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>84.82031584472088</v>
+        <v>98.95703334459313</v>
       </c>
       <c r="B71">
         <v>196415</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>155.50391174128094</v>
+        <v>169.64062858603984</v>
       </c>
       <c r="B72">
         <v>196415</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>155.50392544716533</v>
+        <v>183.77895408292807</v>
       </c>
       <c r="B73">
         <v>196415</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>127.23047148511023</v>
+        <v>155.50401788731415</v>
       </c>
       <c r="B74">
         <v>196415</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>226.1875070973938</v>
+        <v>113.09375239829478</v>
       </c>
       <c r="B75">
         <v>196415</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>98.95703357211823</v>
+        <v>113.09378035343843</v>
       </c>
       <c r="B76">
         <v>196415</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>169.64063530357407</v>
+        <v>84.82032726851821</v>
       </c>
       <c r="B77">
         <v>196415</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>226.18750482267183</v>
+        <v>141.36719164908482</v>
       </c>
       <c r="B78">
         <v>196415</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>141.36719048529585</v>
+        <v>212.05078607805535</v>
       </c>
       <c r="B79">
         <v>196415</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>113.09375275688626</v>
+        <v>84.82031452101319</v>
       </c>
       <c r="B80">
         <v>196415</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>155.50395369778107</v>
+        <v>113.09375501256136</v>
       </c>
       <c r="B81">
         <v>196415</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>113.09375239430324</v>
+        <v>183.77736628467756</v>
       </c>
       <c r="B82">
         <v>196415</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>183.7773488762</v>
+        <v>113.0992172806018</v>
       </c>
       <c r="B83">
         <v>196415</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>70.68359524303833</v>
+        <v>169.64062862575452</v>
       </c>
       <c r="B84">
         <v>196415</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>113.09375239229576</v>
+        <v>141.36719050056854</v>
       </c>
       <c r="B85">
         <v>196415</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>127.23047143883196</v>
+        <v>98.95703349015253</v>
       </c>
       <c r="B86">
         <v>196415</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>169.6406374726912</v>
+        <v>141.3671930751209</v>
       </c>
       <c r="B87">
         <v>196415</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>113.09375278359676</v>
+        <v>127.2304714404047</v>
       </c>
       <c r="B88">
         <v>196415</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>141.36719112443348</v>
+        <v>141.367190650692</v>
       </c>
       <c r="B89">
         <v>196415</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>127.23047144264683</v>
+        <v>127.23047166050583</v>
       </c>
       <c r="B90">
         <v>196415</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>197.9140668252071</v>
+        <v>98.95704407301992</v>
       </c>
       <c r="B91">
         <v>196415</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>98.9570333394563</v>
+        <v>113.09375244169087</v>
       </c>
       <c r="B92">
         <v>196415</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>141.36719366447983</v>
+        <v>84.82031429995573</v>
       </c>
       <c r="B93">
         <v>196415</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>141.3671906904931</v>
+        <v>98.95703336088582</v>
       </c>
       <c r="B94">
         <v>196415</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>84.820341207296</v>
+        <v>113.09375239166889</v>
       </c>
       <c r="B95">
         <v>196415</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>141.3671905078022</v>
+        <v>212.05078574693562</v>
       </c>
       <c r="B96">
         <v>196415</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>84.82033936132098</v>
+        <v>113.0937525025779</v>
       </c>
       <c r="B97">
         <v>196415</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>197.91406714715777</v>
+        <v>113.0937524447445</v>
       </c>
       <c r="B98">
         <v>196415</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>42.410157462566985</v>
+        <v>169.64062858192528</v>
       </c>
       <c r="B99">
         <v>196415</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>169.64063347283036</v>
+        <v>141.36719048921987</v>
       </c>
       <c r="B100">
         <v>196415</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>226.1875189830953</v>
+        <v>98.9571153791212</v>
       </c>
       <c r="B101">
         <v>196415</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.00012044488181150567</v>
+        <v>0.0004980754190909555</v>
       </c>
       <c r="B2">
         <v>53407</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.00021061090059869292</v>
+        <v>0.00019563017757433362</v>
       </c>
       <c r="B3">
         <v>53407</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.000355691742729305</v>
+        <v>0.00013168991072298725</v>
       </c>
       <c r="B4">
         <v>53407</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.001196408193175706</v>
+        <v>0.0002828198192036788</v>
       </c>
       <c r="B5">
         <v>53407</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.00018235126257054243</v>
+        <v>0.00028633585455661913</v>
       </c>
       <c r="B6">
         <v>53407</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.00033642639034060133</v>
+        <v>0.0028150173923081768</v>
       </c>
       <c r="B7">
         <v>53407</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.00010323093088588609</v>
+        <v>0.0005909543869480849</v>
       </c>
       <c r="B8">
         <v>53407</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>8.61332712483299e-5</v>
+        <v>0.0004804320612989175</v>
       </c>
       <c r="B9">
         <v>53407</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.0008297536342430715</v>
+        <v>0.00041458906945553674</v>
       </c>
       <c r="B10">
         <v>53407</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0006650016157951695</v>
+        <v>0.0005250306310213129</v>
       </c>
       <c r="B11">
         <v>53407</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.000699600921655527</v>
+        <v>0.00015850172360834243</v>
       </c>
       <c r="B12">
         <v>53407</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.0010378137454582765</v>
+        <v>0.00017622133758696766</v>
       </c>
       <c r="B13">
         <v>53407</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.00043148274012902227</v>
+        <v>0.00012934785386265588</v>
       </c>
       <c r="B14">
         <v>53407</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.000618515906906979</v>
+        <v>0.003912958894219249</v>
       </c>
       <c r="B15">
         <v>53407</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0012334398615303115</v>
+        <v>8.430306556438428e-5</v>
       </c>
       <c r="B16">
         <v>53407</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.0007770848214490601</v>
+        <v>0.00032311544244244944</v>
       </c>
       <c r="B17">
         <v>53407</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.0029013699987258538</v>
+        <v>0.002899845214405278</v>
       </c>
       <c r="B18">
         <v>53407</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.00017134439343532672</v>
+        <v>0.00017060428371513944</v>
       </c>
       <c r="B19">
         <v>53407</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0002706164526604012</v>
+        <v>0.0006344721246047257</v>
       </c>
       <c r="B20">
         <v>53407</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.00010285203686155055</v>
+        <v>0.004441883047684617</v>
       </c>
       <c r="B21">
         <v>53407</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4.63287837775659e-5</v>
+        <v>0.0026702232009869877</v>
       </c>
       <c r="B22">
         <v>53407</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.001237612001348306</v>
+        <v>0.0003913821443043094</v>
       </c>
       <c r="B23">
         <v>53407</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.0008347849127029271</v>
+        <v>0.001007123021473674</v>
       </c>
       <c r="B24">
         <v>53407</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.003712611914383904</v>
+        <v>0.0006025283893967261</v>
       </c>
       <c r="B25">
         <v>53407</v>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.0040976428565841615</v>
+        <v>0.0001423813728338577</v>
       </c>
       <c r="B26">
         <v>53407</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.0003708595185027009</v>
+        <v>0.001139706436660565</v>
       </c>
       <c r="B27">
         <v>53407</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.00025963116671448355</v>
+        <v>0.00020337410341032412</v>
       </c>
       <c r="B28">
         <v>53407</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.0003426216150406617</v>
+        <v>0.0005212387439482699</v>
       </c>
       <c r="B29">
         <v>53407</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.0005564958696929863</v>
+        <v>0.0010265927510263299</v>
       </c>
       <c r="B30">
         <v>53407</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0005033302490780316</v>
+        <v>0.00028477501427291274</v>
       </c>
       <c r="B31">
         <v>53407</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.00034640764549216294</v>
+        <v>0.00011356658326697277</v>
       </c>
       <c r="B32">
         <v>53407</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.0005153950177270198</v>
+        <v>0.0001346315789910602</v>
       </c>
       <c r="B33">
         <v>53407</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.00013604786134207062</v>
+        <v>0.0004668927817617003</v>
       </c>
       <c r="B34">
         <v>53407</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.0251098126413912</v>
+        <v>0.0004179396054269309</v>
       </c>
       <c r="B35">
         <v>53407</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.0004645955589839575</v>
+        <v>0.00020452926082562947</v>
       </c>
       <c r="B36">
         <v>53407</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.00035614026453324407</v>
+        <v>0.0009377262930251952</v>
       </c>
       <c r="B37">
         <v>53407</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.0002402679864858434</v>
+        <v>5.065388721436966e-5</v>
       </c>
       <c r="B38">
         <v>53407</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.001277121961031225</v>
+        <v>0.00011852549389554737</v>
       </c>
       <c r="B39">
         <v>53407</v>
@@ -13208,7 +13208,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.00209077846342265</v>
+        <v>0.00033759251446323173</v>
       </c>
       <c r="B40">
         <v>53407</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0001069463724430645</v>
+        <v>0.0004410044064103225</v>
       </c>
       <c r="B41">
         <v>53407</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4.2583006940206075e-5</v>
+        <v>0.003009105393589766</v>
       </c>
       <c r="B42">
         <v>53407</v>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.0012003326846725042</v>
+        <v>8.58828790544417e-5</v>
       </c>
       <c r="B43">
         <v>53407</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.00011343529082383367</v>
+        <v>0.0002529125649781062</v>
       </c>
       <c r="B44">
         <v>53407</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6.167429458709569e-5</v>
+        <v>8.327756019182025e-5</v>
       </c>
       <c r="B45">
         <v>53407</v>
@@ -13274,7 +13274,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.0005136572180408782</v>
+        <v>0.00015073081587954184</v>
       </c>
       <c r="B46">
         <v>53407</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.001262914861825256</v>
+        <v>0.00047693466927230027</v>
       </c>
       <c r="B47">
         <v>53407</v>
@@ -13296,7 +13296,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.0016856341901930949</v>
+        <v>0.0052649072136901785</v>
       </c>
       <c r="B48">
         <v>53407</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.00020682363260002783</v>
+        <v>0.00019044863290301766</v>
       </c>
       <c r="B49">
         <v>53407</v>
@@ -13318,7 +13318,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.0006521196968062952</v>
+        <v>0.0004214500059072301</v>
       </c>
       <c r="B50">
         <v>53407</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.0007145195782320994</v>
+        <v>0.0006313575750659316</v>
       </c>
       <c r="B51">
         <v>53407</v>
@@ -13340,7 +13340,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.0008559707919163826</v>
+        <v>0.0003407633472762518</v>
       </c>
       <c r="B52">
         <v>53407</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.00032365394871654323</v>
+        <v>0.00022342675466272729</v>
       </c>
       <c r="B53">
         <v>53407</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.00014980670841548312</v>
+        <v>0.0003638253657848513</v>
       </c>
       <c r="B54">
         <v>53407</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.0016316042645396949</v>
+        <v>0.00023366340960885996</v>
       </c>
       <c r="B55">
         <v>53407</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2.5277765124420522e-5</v>
+        <v>0.0005822850830208605</v>
       </c>
       <c r="B56">
         <v>53407</v>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.0010656577459045714</v>
+        <v>0.00049506639558185</v>
       </c>
       <c r="B57">
         <v>53407</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.00042612094370207145</v>
+        <v>0.00033734140055383983</v>
       </c>
       <c r="B58">
         <v>53407</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.000894450894007155</v>
+        <v>0.00019676411614822525</v>
       </c>
       <c r="B59">
         <v>53407</v>
@@ -13428,7 +13428,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.0009831289061417437</v>
+        <v>0.00024193641163594473</v>
       </c>
       <c r="B60">
         <v>53407</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.0020048368504918075</v>
+        <v>0.0008461195926224616</v>
       </c>
       <c r="B61">
         <v>53407</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.0033150903537974494</v>
+        <v>2.627136506194136e-5</v>
       </c>
       <c r="B62">
         <v>53407</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.0005955210453823184</v>
+        <v>0.0004058991040909728</v>
       </c>
       <c r="B63">
         <v>53407</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.0009463605106423247</v>
+        <v>0.0014666751364854048</v>
       </c>
       <c r="B64">
         <v>53407</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7.350399068904644e-5</v>
+        <v>0.0014449830232800634</v>
       </c>
       <c r="B65">
         <v>53407</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.00029265145753784214</v>
+        <v>0.0003693336631363232</v>
       </c>
       <c r="B66">
         <v>53407</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.0005821669956019506</v>
+        <v>0.00016667481233559404</v>
       </c>
       <c r="B67">
         <v>53407</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.0004968974396398269</v>
+        <v>0.0016313139872808106</v>
       </c>
       <c r="B68">
         <v>53407</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.0004680684343594659</v>
+        <v>0.0043308364074560995</v>
       </c>
       <c r="B69">
         <v>53407</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.0012259870816637773</v>
+        <v>0.0002677999221585136</v>
       </c>
       <c r="B70">
         <v>53407</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.00012153680526699359</v>
+        <v>0.0003027057220451502</v>
       </c>
       <c r="B71">
         <v>53407</v>
@@ -13560,7 +13560,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.000995415607424885</v>
+        <v>0.0002799371142503186</v>
       </c>
       <c r="B72">
         <v>53407</v>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.000589009100649968</v>
+        <v>0.0001737539482956573</v>
       </c>
       <c r="B73">
         <v>53407</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.0003382725027235697</v>
+        <v>0.0017883045736683716</v>
       </c>
       <c r="B74">
         <v>53407</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0008213467315835053</v>
+        <v>0.00011397775703219962</v>
       </c>
       <c r="B75">
         <v>53407</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.0014537180741671075</v>
+        <v>0.00042296933331614225</v>
       </c>
       <c r="B76">
         <v>53407</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.0008250206990638993</v>
+        <v>0.0012515084216531704</v>
       </c>
       <c r="B77">
         <v>53407</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.00010910275243195682</v>
+        <v>0.001254062085610939</v>
       </c>
       <c r="B78">
         <v>53407</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.0002498950096490182</v>
+        <v>0.0013290897529879184</v>
       </c>
       <c r="B79">
         <v>53407</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.00014100385072868298</v>
+        <v>0.0001355089047392427</v>
       </c>
       <c r="B80">
         <v>53407</v>
@@ -13659,7 +13659,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.0013069627887472928</v>
+        <v>0.0025256497674191695</v>
       </c>
       <c r="B81">
         <v>53407</v>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.00012321120074810986</v>
+        <v>0.0015281593491037091</v>
       </c>
       <c r="B82">
         <v>53407</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.003148005686195948</v>
+        <v>0.0002599580485102876</v>
       </c>
       <c r="B83">
         <v>53407</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.00039610235523839497</v>
+        <v>0.0004703368659832736</v>
       </c>
       <c r="B84">
         <v>53407</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.00018717924554479434</v>
+        <v>0.0002670919516890896</v>
       </c>
       <c r="B85">
         <v>53407</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.001397627305830189</v>
+        <v>0.0005044598334043189</v>
       </c>
       <c r="B86">
         <v>53407</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.00012722872396704182</v>
+        <v>0.0016698846037709154</v>
       </c>
       <c r="B87">
         <v>53407</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.0005843973338142153</v>
+        <v>0.0024243044885494175</v>
       </c>
       <c r="B88">
         <v>53407</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.0019219493336209185</v>
+        <v>0.00041557268249571783</v>
       </c>
       <c r="B89">
         <v>53407</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.00031619901277505665</v>
+        <v>0.0002457745145826973</v>
       </c>
       <c r="B90">
         <v>53407</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.0006229424470541294</v>
+        <v>0.00011075851316905147</v>
       </c>
       <c r="B91">
         <v>53407</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.0008668386737730673</v>
+        <v>0.0003230937158999947</v>
       </c>
       <c r="B92">
         <v>53407</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>9.296756252132973e-5</v>
+        <v>0.00044808612313753234</v>
       </c>
       <c r="B93">
         <v>53407</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.0035979189938955113</v>
+        <v>0.0004022946167953519</v>
       </c>
       <c r="B94">
         <v>53407</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.0003641547613268862</v>
+        <v>0.00012960600476536412</v>
       </c>
       <c r="B95">
         <v>53407</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.00015233035941789998</v>
+        <v>0.00032249948170982786</v>
       </c>
       <c r="B96">
         <v>53407</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.00036976557949158024</v>
+        <v>0.00027700780761721834</v>
       </c>
       <c r="B97">
         <v>53407</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.0008495836657383701</v>
+        <v>0.0003786363206974222</v>
       </c>
       <c r="B98">
         <v>53407</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.001921330043340331</v>
+        <v>0.0005044058906837786</v>
       </c>
       <c r="B99">
         <v>53407</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.0009246249165039159</v>
+        <v>0.00025421035281212966</v>
       </c>
       <c r="B100">
         <v>53407</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>9.009301656333975e-5</v>
+        <v>8.76100474831038e-6</v>
       </c>
       <c r="B101">
         <v>53407</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.17049942028675905</v>
+        <v>9.110774570480226e-5</v>
       </c>
       <c r="B2">
         <v>6264149</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0068676834541814575</v>
+        <v>20.089941474308702</v>
       </c>
       <c r="B3">
         <v>6264149</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.006589958239009827</v>
+        <v>0.0026519948061034227</v>
       </c>
       <c r="B4">
         <v>6264149</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>12.133800443805573</v>
+        <v>9.17518433432305</v>
       </c>
       <c r="B5">
         <v>6264149</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.004338546071620691</v>
+        <v>0.031249034748037363</v>
       </c>
       <c r="B6">
         <v>6264149</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>95.28062677046655</v>
+        <v>31.480871689399045</v>
       </c>
       <c r="B7">
         <v>6264149</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>26.95130181158014</v>
+        <v>29.994029036081322</v>
       </c>
       <c r="B8">
         <v>6264149</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>33.06125392132734</v>
+        <v>5.1462994730900204</v>
       </c>
       <c r="B9">
         <v>6264149</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.049397322281471</v>
+        <v>96.88035844879873</v>
       </c>
       <c r="B10">
         <v>6264149</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3.1553749206689075</v>
+        <v>28.04478650266828</v>
       </c>
       <c r="B11">
         <v>6264149</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>84.99395006495229</v>
+        <v>29.0691067774424</v>
       </c>
       <c r="B12">
         <v>6264149</v>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>33.96276525111887</v>
+        <v>0.0018336248141546578</v>
       </c>
       <c r="B13">
         <v>6264149</v>
@@ -15170,7 +15170,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.025843685148676736</v>
+        <v>10.23693262747734</v>
       </c>
       <c r="B14">
         <v>6264149</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>31.948728181372935</v>
+        <v>32.03019481406345</v>
       </c>
       <c r="B15">
         <v>6264149</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>86.54308850573015</v>
+        <v>26.341244490082705</v>
       </c>
       <c r="B16">
         <v>6264149</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.004072699830208187</v>
+        <v>0.006846818880088081</v>
       </c>
       <c r="B17">
         <v>6264149</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16.453007016117017</v>
+        <v>0.0014600807688059493</v>
       </c>
       <c r="B18">
         <v>6264149</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>14.594289490212052</v>
+        <v>22.055203806069464</v>
       </c>
       <c r="B19">
         <v>6264149</v>
@@ -15236,7 +15236,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>104.7317286526353</v>
+        <v>91.20535718559725</v>
       </c>
       <c r="B20">
         <v>6264149</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>88.54228723205847</v>
+        <v>0.005388132223444381</v>
       </c>
       <c r="B21">
         <v>6264149</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.0021572985737832078</v>
+        <v>24.03312685129772</v>
       </c>
       <c r="B22">
         <v>6264149</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>92.33942693912046</v>
+        <v>0.005112825139193779</v>
       </c>
       <c r="B23">
         <v>6264149</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>30.06154432571588</v>
+        <v>25.005993989903075</v>
       </c>
       <c r="B24">
         <v>6264149</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>22.968854396381115</v>
+        <v>95.06452004674036</v>
       </c>
       <c r="B25">
         <v>6264149</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.004002157811421537</v>
+        <v>83.32900173807887</v>
       </c>
       <c r="B26">
         <v>6264149</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>90.09188167501765</v>
+        <v>34.294363594617856</v>
       </c>
       <c r="B27">
         <v>6264149</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>35.87399392677664</v>
+        <v>0.0023437798093992835</v>
       </c>
       <c r="B28">
         <v>6264149</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>10.281653620572097</v>
+        <v>0.0016419756750654445</v>
       </c>
       <c r="B29">
         <v>6264149</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>14.061859424694092</v>
+        <v>1.3172732526940263</v>
       </c>
       <c r="B30">
         <v>6264149</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0022251762425019718</v>
+        <v>22.99565742492012</v>
       </c>
       <c r="B31">
         <v>6264149</v>
@@ -15368,7 +15368,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>90.96402648795622</v>
+        <v>2.185342876939331</v>
       </c>
       <c r="B32">
         <v>6264149</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.003966929209296787</v>
+        <v>83.07279423653699</v>
       </c>
       <c r="B33">
         <v>6264149</v>
@@ -15390,7 +15390,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>77.22780061341926</v>
+        <v>28.973751445269794</v>
       </c>
       <c r="B34">
         <v>6264149</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>30.86263868201845</v>
+        <v>23.093846798129974</v>
       </c>
       <c r="B35">
         <v>6264149</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>95.19724686643573</v>
+        <v>0.015322243810475908</v>
       </c>
       <c r="B36">
         <v>6264149</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.0015582771386290226</v>
+        <v>92.80140094348918</v>
       </c>
       <c r="B37">
         <v>6264149</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>110.33302672017777</v>
+        <v>90.60740085915383</v>
       </c>
       <c r="B38">
         <v>6264149</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>27.93380369924163</v>
+        <v>2.539195506087567</v>
       </c>
       <c r="B39">
         <v>6264149</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>11.142610744313105</v>
+        <v>0.003650849053189414</v>
       </c>
       <c r="B40">
         <v>6264149</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>75.54447359650936</v>
+        <v>7.412414081912811</v>
       </c>
       <c r="B41">
         <v>6264149</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.0014092251768463792</v>
+        <v>22.015439876014653</v>
       </c>
       <c r="B42">
         <v>6264149</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.002294709965597394</v>
+        <v>92.52586168484564</v>
       </c>
       <c r="B43">
         <v>6264149</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>91.0043669178263</v>
+        <v>10.2037561883582</v>
       </c>
       <c r="B44">
         <v>6264149</v>
@@ -15511,7 +15511,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.003864640192712851</v>
+        <v>17.075865754234464</v>
       </c>
       <c r="B45">
         <v>6264149</v>
@@ -15522,7 +15522,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>30.94341438860181</v>
+        <v>23.971619035318323</v>
       </c>
       <c r="B46">
         <v>6264149</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>26.005291090553264</v>
+        <v>0.004559832742266284</v>
       </c>
       <c r="B47">
         <v>6264149</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8.12116364049735</v>
+        <v>93.73570153777908</v>
       </c>
       <c r="B48">
         <v>6264149</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>92.37413056040555</v>
+        <v>0.0025506980393534967</v>
       </c>
       <c r="B49">
         <v>6264149</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>28.906539881952792</v>
+        <v>72.18078251110221</v>
       </c>
       <c r="B50">
         <v>6264149</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>92.3259114926952</v>
+        <v>0.0011868590758314637</v>
       </c>
       <c r="B51">
         <v>6264149</v>
@@ -15588,7 +15588,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.003512707544383759</v>
+        <v>19.824277722353965</v>
       </c>
       <c r="B52">
         <v>6264149</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.006148530552567955</v>
+        <v>31.004480800645364</v>
       </c>
       <c r="B53">
         <v>6264149</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>30.913817242308255</v>
+        <v>92.39203683444045</v>
       </c>
       <c r="B54">
         <v>6264149</v>
@@ -15621,7 +15621,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>30.88427175533987</v>
+        <v>32.831914036559</v>
       </c>
       <c r="B55">
         <v>6264149</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.19740614413149066</v>
+        <v>27.297622269088304</v>
       </c>
       <c r="B56">
         <v>6264149</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>92.83869195674737</v>
+        <v>100.10609311193554</v>
       </c>
       <c r="B57">
         <v>6264149</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>88.53269221668485</v>
+        <v>28.934878254251547</v>
       </c>
       <c r="B58">
         <v>6264149</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.003309807735062991</v>
+        <v>92.79516393354402</v>
       </c>
       <c r="B59">
         <v>6264149</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>32.473958782215895</v>
+        <v>12.158897451225728</v>
       </c>
       <c r="B60">
         <v>6264149</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.0028619930455032485</v>
+        <v>92.1565600403217</v>
       </c>
       <c r="B61">
         <v>6264149</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.0012064147885000594</v>
+        <v>0.0014980858314566341</v>
       </c>
       <c r="B62">
         <v>6264149</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.002761688025644699</v>
+        <v>85.3190663718483</v>
       </c>
       <c r="B63">
         <v>6264149</v>
@@ -15720,7 +15720,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>34.84593219778394</v>
+        <v>0.001493895852948093</v>
       </c>
       <c r="B64">
         <v>6264149</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.0025608242713561135</v>
+        <v>88.08698161170335</v>
       </c>
       <c r="B65">
         <v>6264149</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>7.254890991005877</v>
+        <v>83.55121340858884</v>
       </c>
       <c r="B66">
         <v>6264149</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.011583252342915972</v>
+        <v>31.00675610362594</v>
       </c>
       <c r="B67">
         <v>6264149</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>34.86899838440125</v>
+        <v>34.82917421339365</v>
       </c>
       <c r="B68">
         <v>6264149</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>17.086586720040103</v>
+        <v>15.049762660342795</v>
       </c>
       <c r="B69">
         <v>6264149</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>21.123104379369675</v>
+        <v>0.002918198596772973</v>
       </c>
       <c r="B70">
         <v>6264149</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>25.03553602688637</v>
+        <v>97.3731929396757</v>
       </c>
       <c r="B71">
         <v>6264149</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.2562267939609708</v>
+        <v>0.009050619652546244</v>
       </c>
       <c r="B72">
         <v>6264149</v>
@@ -15819,7 +15819,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>93.36149782576982</v>
+        <v>18.065895751199683</v>
       </c>
       <c r="B73">
         <v>6264149</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>96.58411952958882</v>
+        <v>7.3330980004466175</v>
       </c>
       <c r="B74">
         <v>6264149</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0024387765730741013</v>
+        <v>8.28388687630216</v>
       </c>
       <c r="B75">
         <v>6264149</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>6.164655544781257</v>
+        <v>10.092521072429705</v>
       </c>
       <c r="B76">
         <v>6264149</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>21.935934450085767</v>
+        <v>17.177998426833124</v>
       </c>
       <c r="B77">
         <v>6264149</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.0038245375327583446</v>
+        <v>0.01647809002158976</v>
       </c>
       <c r="B78">
         <v>6264149</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>29.939178202432256</v>
+        <v>2.2516871175165267</v>
       </c>
       <c r="B79">
         <v>6264149</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>29.902978151432674</v>
+        <v>0.39284505962508787</v>
       </c>
       <c r="B80">
         <v>6264149</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.016487313762798418</v>
+        <v>0.003755620129353263</v>
       </c>
       <c r="B81">
         <v>6264149</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.004925666445598232</v>
+        <v>0.002994990939835726</v>
       </c>
       <c r="B82">
         <v>6264149</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>32.930651062249524</v>
+        <v>25.28732917076151</v>
       </c>
       <c r="B83">
         <v>6264149</v>
@@ -15940,7 +15940,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>85.30805829833993</v>
+        <v>89.97588632998028</v>
       </c>
       <c r="B84">
         <v>6264149</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.0013208121506318267</v>
+        <v>85.58200443894033</v>
       </c>
       <c r="B85">
         <v>6264149</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.0011257325093632343</v>
+        <v>0.0012714343831614341</v>
       </c>
       <c r="B86">
         <v>6264149</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1.3274516772918115</v>
+        <v>21.629342302108764</v>
       </c>
       <c r="B87">
         <v>6264149</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>21.033651817302253</v>
+        <v>14.048911380023364</v>
       </c>
       <c r="B88">
         <v>6264149</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>87.64614076821974</v>
+        <v>30.869210969574144</v>
       </c>
       <c r="B89">
         <v>6264149</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.0013903849157945172</v>
+        <v>0.0030726275690297956</v>
       </c>
       <c r="B90">
         <v>6264149</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>92.28267212646143</v>
+        <v>0.002173979363357462</v>
       </c>
       <c r="B91">
         <v>6264149</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8.116691288502922</v>
+        <v>0.0028028279802956215</v>
       </c>
       <c r="B92">
         <v>6264149</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>84.67371356440701</v>
+        <v>0.0019486519532773872</v>
       </c>
       <c r="B93">
         <v>6264149</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.004576792305573666</v>
+        <v>21.01905989362363</v>
       </c>
       <c r="B94">
         <v>6264149</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>27.50231921443936</v>
+        <v>0.005846824411612201</v>
       </c>
       <c r="B95">
         <v>6264149</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>93.9532159207417</v>
+        <v>96.40001545054523</v>
       </c>
       <c r="B96">
         <v>6264149</v>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>28.970445098037843</v>
+        <v>0.01839514485400353</v>
       </c>
       <c r="B97">
         <v>6264149</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.0037800876848334223</v>
+        <v>79.7872787528633</v>
       </c>
       <c r="B98">
         <v>6264149</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>101.06846102586357</v>
+        <v>87.81072837048113</v>
       </c>
       <c r="B99">
         <v>6264149</v>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>24.0087298655763</v>
+        <v>26.92475437084286</v>
       </c>
       <c r="B100">
         <v>6264149</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.007733728805119491</v>
+        <v>13.07756728178711</v>
       </c>
       <c r="B101">
         <v>6264149</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>29.848766695464974</v>
+        <v>21.889138041921342</v>
       </c>
       <c r="B2">
         <v>1008007</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>24.87397188325633</v>
+        <v>39.79841886784959</v>
       </c>
       <c r="B3">
         <v>1008007</v>
@@ -16184,7 +16184,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>25.868930446606555</v>
+        <v>32.83363377111414</v>
       </c>
       <c r="B4">
         <v>1008007</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>32.833639278962664</v>
+        <v>35.81851094190131</v>
       </c>
       <c r="B5">
         <v>1008007</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34.82538902208489</v>
+        <v>37.80843646990519</v>
       </c>
       <c r="B6">
         <v>1008007</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>40.793301189553006</v>
+        <v>31.838679751347854</v>
       </c>
       <c r="B7">
         <v>1008007</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>34.823556922627176</v>
+        <v>35.81856571362232</v>
       </c>
       <c r="B8">
         <v>1008007</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>27.858934932864543</v>
+        <v>30.84372089503836</v>
       </c>
       <c r="B9">
         <v>1008007</v>
@@ -16250,7 +16250,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>36.813475036813884</v>
+        <v>27.858844211555038</v>
       </c>
       <c r="B10">
         <v>1008007</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>23.879808506131326</v>
+        <v>29.848761739096858</v>
       </c>
       <c r="B11">
         <v>1008007</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>28.853807617886446</v>
+        <v>30.84445738451791</v>
       </c>
       <c r="B12">
         <v>1008007</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>28.85381265573966</v>
+        <v>29.84877172987467</v>
       </c>
       <c r="B13">
         <v>1008007</v>
@@ -16294,7 +16294,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>27.85884856079838</v>
+        <v>30.84683930944516</v>
       </c>
       <c r="B14">
         <v>1008007</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>20.894938337149654</v>
+        <v>41.78825485030529</v>
       </c>
       <c r="B15">
         <v>1008007</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>29.848761637160692</v>
+        <v>28.85380771327567</v>
       </c>
       <c r="B16">
         <v>1008007</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>37.80842907141067</v>
+        <v>39.79834585096944</v>
       </c>
       <c r="B17">
         <v>1008007</v>
@@ -16338,7 +16338,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>24.89316998277974</v>
+        <v>31.83867975491046</v>
       </c>
       <c r="B18">
         <v>1008007</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>29.84875816748763</v>
+        <v>30.843720694619435</v>
       </c>
       <c r="B19">
         <v>1008007</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>14.92438714997769</v>
+        <v>29.84875156164901</v>
       </c>
       <c r="B20">
         <v>1008007</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>30.843725732073267</v>
+        <v>40.793301189551585</v>
       </c>
       <c r="B21">
         <v>1008007</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>23.87901233242019</v>
+        <v>19.900423838607708</v>
       </c>
       <c r="B22">
         <v>1008007</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>30.843715656434824</v>
+        <v>35.849202493901544</v>
       </c>
       <c r="B23">
         <v>1008007</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>26.86456825813036</v>
+        <v>33.82859341487767</v>
       </c>
       <c r="B24">
         <v>1008007</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>31.838687391342887</v>
+        <v>28.85380763074835</v>
       </c>
       <c r="B25">
         <v>1008007</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>29.848772704477142</v>
+        <v>29.848766674979913</v>
       </c>
       <c r="B26">
         <v>1008007</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>33.840660207409655</v>
+        <v>17.909265442275455</v>
       </c>
       <c r="B27">
         <v>1008007</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>30.8440528551792</v>
+        <v>36.180386439301174</v>
       </c>
       <c r="B28">
         <v>1008007</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>38.80338083274569</v>
+        <v>28.853802580067395</v>
       </c>
       <c r="B29">
         <v>1008007</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>34.82360897100648</v>
+        <v>25.868930446606782</v>
       </c>
       <c r="B30">
         <v>1008007</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>30.845228425881828</v>
+        <v>34.82354684746798</v>
       </c>
       <c r="B31">
         <v>1008007</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>28.8538258683692</v>
+        <v>36.81346999927507</v>
       </c>
       <c r="B32">
         <v>1008007</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>25.868965330420224</v>
+        <v>38.8033881131812</v>
       </c>
       <c r="B33">
         <v>1008007</v>
@@ -16514,7 +16514,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>40.79330190221651</v>
+        <v>30.84867620205756</v>
       </c>
       <c r="B34">
         <v>1008007</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>41.78826528561706</v>
+        <v>31.838674713528235</v>
       </c>
       <c r="B35">
         <v>1008007</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>32.83383755261923</v>
+        <v>28.853802580070237</v>
       </c>
       <c r="B36">
         <v>1008007</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>28.853807618345513</v>
+        <v>33.82859786564654</v>
       </c>
       <c r="B37">
         <v>1008007</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>22.884058313145772</v>
+        <v>40.79330247047642</v>
       </c>
       <c r="B38">
         <v>1008007</v>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>32.83363377080536</v>
+        <v>33.82859284895267</v>
       </c>
       <c r="B39">
         <v>1008007</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>17.909263027679344</v>
+        <v>21.889094221695927</v>
       </c>
       <c r="B40">
         <v>1008007</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>30.843726450325107</v>
+        <v>32.83363377062142</v>
       </c>
       <c r="B41">
         <v>1008007</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>39.798347621081234</v>
+        <v>31.83871648572989</v>
       </c>
       <c r="B42">
         <v>1008007</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>31.838679751347286</v>
+        <v>29.852126335374464</v>
       </c>
       <c r="B43">
         <v>1008007</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>20.8941415699166</v>
+        <v>33.828700854059036</v>
       </c>
       <c r="B44">
         <v>1008007</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>34.82355188560416</v>
+        <v>28.853817259849734</v>
       </c>
       <c r="B45">
         <v>1008007</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>22.884058439940645</v>
+        <v>35.81851386627045</v>
       </c>
       <c r="B46">
         <v>1008007</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>36.81347503681366</v>
+        <v>27.867055717460403</v>
       </c>
       <c r="B47">
         <v>1008007</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>34.82356196044634</v>
+        <v>35.81851597972036</v>
       </c>
       <c r="B48">
         <v>1008007</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>33.82864601998244</v>
+        <v>30.843725787822848</v>
       </c>
       <c r="B49">
         <v>1008007</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>32.83362873280237</v>
+        <v>27.858853716270744</v>
       </c>
       <c r="B50">
         <v>1008007</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>34.82355692262706</v>
+        <v>41.78831291678796</v>
       </c>
       <c r="B51">
         <v>1008007</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>27.85884856079349</v>
+        <v>31.838870126564586</v>
       </c>
       <c r="B52">
         <v>1008007</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>33.84307717742047</v>
+        <v>32.83364442396993</v>
       </c>
       <c r="B53">
         <v>1008007</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>41.788255208823216</v>
+        <v>31.83868101682515</v>
       </c>
       <c r="B54">
         <v>1008007</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>32.83363068092365</v>
+        <v>30.845807129292098</v>
       </c>
       <c r="B55">
         <v>1008007</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>28.853802580067395</v>
+        <v>28.86330711551875</v>
       </c>
       <c r="B56">
         <v>1008007</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>33.82859786553382</v>
+        <v>40.79330183121476</v>
       </c>
       <c r="B57">
         <v>1008007</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>23.88295608764895</v>
+        <v>33.82858778989578</v>
       </c>
       <c r="B58">
         <v>1008007</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>36.81346496117567</v>
+        <v>25.868933279247358</v>
       </c>
       <c r="B59">
         <v>1008007</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>32.83452309009613</v>
+        <v>40.79332518992953</v>
       </c>
       <c r="B60">
         <v>1008007</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>25.868936644403846</v>
+        <v>36.813544674777404</v>
       </c>
       <c r="B61">
         <v>1008007</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>29.85099177038984</v>
+        <v>33.828597865750794</v>
       </c>
       <c r="B62">
         <v>1008007</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>42.783316912978535</v>
+        <v>22.884058340175557</v>
       </c>
       <c r="B63">
         <v>1008007</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>33.82959482756894</v>
+        <v>40.79330119023723</v>
       </c>
       <c r="B64">
         <v>1008007</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>38.804327800613805</v>
+        <v>44.77313748443419</v>
       </c>
       <c r="B65">
         <v>1008007</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>26.86436716760511</v>
+        <v>24.873990257456512</v>
       </c>
       <c r="B66">
         <v>1008007</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>28.853807617886446</v>
+        <v>25.86893776602932</v>
       </c>
       <c r="B67">
         <v>1008007</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>24.87397642733265</v>
+        <v>32.83381728829875</v>
       </c>
       <c r="B68">
         <v>1008007</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>50.74289176048171</v>
+        <v>32.83363377062142</v>
       </c>
       <c r="B69">
         <v>1008007</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>31.838692917083677</v>
+        <v>24.87397642733754</v>
       </c>
       <c r="B70">
         <v>1008007</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>21.904169629819876</v>
+        <v>33.828592843354784</v>
       </c>
       <c r="B71">
         <v>1008007</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>37.80842925292757</v>
+        <v>30.843827431183854</v>
       </c>
       <c r="B72">
         <v>1008007</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>28.853807617886446</v>
+        <v>30.84371565643505</v>
       </c>
       <c r="B73">
         <v>1008007</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>29.86546911822836</v>
+        <v>34.82355401918119</v>
       </c>
       <c r="B74">
         <v>1008007</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>31.838679751347286</v>
+        <v>25.86925840585957</v>
       </c>
       <c r="B75">
         <v>1008007</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>35.82428473437096</v>
+        <v>34.82355692262706</v>
       </c>
       <c r="B76">
         <v>1008007</v>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>27.858843522984785</v>
+        <v>23.87901233241996</v>
       </c>
       <c r="B77">
         <v>1008007</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>21.889094218233424</v>
+        <v>34.82362376063247</v>
       </c>
       <c r="B78">
         <v>1008007</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>25.868930446606555</v>
+        <v>22.88443556392258</v>
       </c>
       <c r="B79">
         <v>1008007</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>22.884058313145772</v>
+        <v>29.848762948840545</v>
       </c>
       <c r="B80">
         <v>1008007</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>46.76305049429379</v>
+        <v>23.879017370239126</v>
       </c>
       <c r="B81">
         <v>1008007</v>
@@ -17042,7 +17042,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>27.85883848515499</v>
+        <v>27.858843522974098</v>
       </c>
       <c r="B82">
         <v>1008007</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>35.82149105052292</v>
+        <v>28.853802580067395</v>
       </c>
       <c r="B83">
         <v>1008007</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>26.863884465929573</v>
+        <v>32.83365861886307</v>
       </c>
       <c r="B84">
         <v>1008007</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>31.838679751347172</v>
+        <v>37.80882888988174</v>
       </c>
       <c r="B85">
         <v>1008007</v>
@@ -17086,7 +17086,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>36.81363441080782</v>
+        <v>29.848778948195104</v>
       </c>
       <c r="B86">
         <v>1008007</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>27.862335160432394</v>
+        <v>20.894952338152166</v>
       </c>
       <c r="B87">
         <v>1008007</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>26.86388446694059</v>
+        <v>33.8383799357797</v>
       </c>
       <c r="B88">
         <v>1008007</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>27.858853598612313</v>
+        <v>33.82931615179865</v>
       </c>
       <c r="B89">
         <v>1008007</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>40.79330633958716</v>
+        <v>29.84884205266826</v>
       </c>
       <c r="B90">
         <v>1008007</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>22.884053275326778</v>
+        <v>30.844512879909644</v>
       </c>
       <c r="B91">
         <v>1008007</v>
@@ -17152,7 +17152,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>25.868930446606555</v>
+        <v>32.83364439152683</v>
       </c>
       <c r="B92">
         <v>1008007</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>24.873975130386157</v>
+        <v>40.2166952447501</v>
       </c>
       <c r="B93">
         <v>1008007</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>39.798725104240134</v>
+        <v>36.814387256560394</v>
       </c>
       <c r="B94">
         <v>1008007</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>35.81851094190131</v>
+        <v>24.873971389513372</v>
       </c>
       <c r="B95">
         <v>1008007</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>32.83364442933714</v>
+        <v>36.813469998994606</v>
       </c>
       <c r="B96">
         <v>1008007</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>31.87601422757416</v>
+        <v>32.833639392679856</v>
       </c>
       <c r="B97">
         <v>1008007</v>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>35.82211980903321</v>
+        <v>26.863889503699852</v>
       </c>
       <c r="B98">
         <v>1008007</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>43.77816935808244</v>
+        <v>28.853807617950338</v>
       </c>
       <c r="B99">
         <v>1008007</v>
@@ -17240,7 +17240,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>30.897086202412652</v>
+        <v>25.87095225640155</v>
       </c>
       <c r="B100">
         <v>1008007</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>30.84372069425399</v>
+        <v>36.81346999906327</v>
       </c>
       <c r="B101">
         <v>1008007</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.00018496728042194377</v>
+        <v>3.8483859935212195e-5</v>
       </c>
       <c r="B2">
         <v>87121</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0009732200372667421</v>
+        <v>0.00013554694752571095</v>
       </c>
       <c r="B3">
         <v>87121</v>
@@ -17308,7 +17308,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0003579907604311927</v>
+        <v>5.562289598870507e-5</v>
       </c>
       <c r="B4">
         <v>87121</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9.099449021476858e-5</v>
+        <v>1.651513387557202e-5</v>
       </c>
       <c r="B5">
         <v>87121</v>
@@ -17330,7 +17330,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3.839949698303258e-5</v>
+        <v>9.003989068645524e-5</v>
       </c>
       <c r="B6">
         <v>87121</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.00010809368982833689</v>
+        <v>0.00010699786734136296</v>
       </c>
       <c r="B7">
         <v>87121</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9.602495697791369e-5</v>
+        <v>0.00013943052179143933</v>
       </c>
       <c r="B8">
         <v>87121</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7.401264039685884e-5</v>
+        <v>0.00015161195528889948</v>
       </c>
       <c r="B9">
         <v>87121</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5.482522625044339e-5</v>
+        <v>5.8428280972577795e-5</v>
       </c>
       <c r="B10">
         <v>87121</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>8.84315496598731e-5</v>
+        <v>6.512528382529581e-5</v>
       </c>
       <c r="B11">
         <v>87121</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6.698890680567615e-5</v>
+        <v>0.00010655882320165233</v>
       </c>
       <c r="B12">
         <v>87121</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5.81823777601187e-5</v>
+        <v>3.244660198120641e-5</v>
       </c>
       <c r="B13">
         <v>87121</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7.44295825967356e-5</v>
+        <v>7.212148575064248e-5</v>
       </c>
       <c r="B14">
         <v>87121</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.00011262661459099377</v>
+        <v>0.0002748671972661043</v>
       </c>
       <c r="B15">
         <v>87121</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.00014067891201463567</v>
+        <v>8.956258732695233e-5</v>
       </c>
       <c r="B16">
         <v>87121</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>6.050102789956213e-5</v>
+        <v>0.00023098404746590973</v>
       </c>
       <c r="B17">
         <v>87121</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.00020803205908137556</v>
+        <v>3.015873813794201e-5</v>
       </c>
       <c r="B18">
         <v>87121</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0001847662866758526</v>
+        <v>7.706677776653237e-5</v>
       </c>
       <c r="B19">
         <v>87121</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.00012144411199344063</v>
+        <v>0.00011783866700554313</v>
       </c>
       <c r="B20">
         <v>87121</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5.2908520128625014e-5</v>
+        <v>6.926245219673888e-5</v>
       </c>
       <c r="B21">
         <v>87121</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>9.911684673724608e-5</v>
+        <v>0.00022740037144330927</v>
       </c>
       <c r="B22">
         <v>87121</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>7.169014629582193e-5</v>
+        <v>0.00015105555717553898</v>
       </c>
       <c r="B23">
         <v>87121</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6.0581021401162616e-5</v>
+        <v>3.460445842407012e-5</v>
       </c>
       <c r="B24">
         <v>87121</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.6953544903562943e-5</v>
+        <v>9.021962745947576e-5</v>
       </c>
       <c r="B25">
         <v>87121</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3.282102371571227e-5</v>
+        <v>0.0005678549763636909</v>
       </c>
       <c r="B26">
         <v>87121</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2.721857451604137e-5</v>
+        <v>0.00017840674378177823</v>
       </c>
       <c r="B27">
         <v>87121</v>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.2486440304826374e-5</v>
+        <v>0.00024465198042378233</v>
       </c>
       <c r="B28">
         <v>87121</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.00015363340858698393</v>
+        <v>7.25786459518929e-5</v>
       </c>
       <c r="B29">
         <v>87121</v>
@@ -17594,7 +17594,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.0001890262227028927</v>
+        <v>5.0838117768847724e-5</v>
       </c>
       <c r="B30">
         <v>87121</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.00010819344678125731</v>
+        <v>0.00017674889159380314</v>
       </c>
       <c r="B31">
         <v>87121</v>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3.287144432206901e-5</v>
+        <v>4.7825026740611065e-5</v>
       </c>
       <c r="B32">
         <v>87121</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.00028656797973880543</v>
+        <v>0.00021626358455861805</v>
       </c>
       <c r="B33">
         <v>87121</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.4203405608981257e-5</v>
+        <v>7.868752016904068e-5</v>
       </c>
       <c r="B34">
         <v>87121</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.00021657632288096806</v>
+        <v>5.6072596727574364e-5</v>
       </c>
       <c r="B35">
         <v>87121</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>7.520001564742529e-5</v>
+        <v>4.0201782869786484e-5</v>
       </c>
       <c r="B36">
         <v>87121</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8.942605345652055e-5</v>
+        <v>9.499221063435925e-5</v>
       </c>
       <c r="B37">
         <v>87121</v>
@@ -17682,7 +17682,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.00023167285717207164</v>
+        <v>9.655835612321084e-5</v>
       </c>
       <c r="B38">
         <v>87121</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8.952707201004273e-5</v>
+        <v>0.00011324983590554893</v>
       </c>
       <c r="B39">
         <v>87121</v>
@@ -17704,7 +17704,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.0001048996388526291</v>
+        <v>3.481029767016253e-5</v>
       </c>
       <c r="B40">
         <v>87121</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.00026071868132859777</v>
+        <v>7.223831451952378e-5</v>
       </c>
       <c r="B41">
         <v>87121</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.00016116604761862163</v>
+        <v>8.522917357467463e-5</v>
       </c>
       <c r="B42">
         <v>87121</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.00018004609800925664</v>
+        <v>0.0001445812435640903</v>
       </c>
       <c r="B43">
         <v>87121</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>6.527373761500144e-5</v>
+        <v>0.00032402940989229023</v>
       </c>
       <c r="B44">
         <v>87121</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9.115082277588726e-5</v>
+        <v>0.00010179151858835667</v>
       </c>
       <c r="B45">
         <v>87121</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.00019326910460648605</v>
+        <v>4.086666398706029e-5</v>
       </c>
       <c r="B46">
         <v>87121</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.00022384454227264428</v>
+        <v>7.128062070904662e-5</v>
       </c>
       <c r="B47">
         <v>87121</v>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7.411363482034972e-5</v>
+        <v>0.00011331814751258662</v>
       </c>
       <c r="B48">
         <v>87121</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.00014457984047311356</v>
+        <v>0.00015948845144109214</v>
       </c>
       <c r="B49">
         <v>87121</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.00014233022548992835</v>
+        <v>0.00018689037173658107</v>
       </c>
       <c r="B50">
         <v>87121</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>5.753324672497229e-5</v>
+        <v>4.904429079388706e-5</v>
       </c>
       <c r="B51">
         <v>87121</v>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.00012417942259546066</v>
+        <v>3.656664256368458e-5</v>
       </c>
       <c r="B52">
         <v>87121</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2.628820548622457e-5</v>
+        <v>4.048108917587001e-5</v>
       </c>
       <c r="B53">
         <v>87121</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.00018000824657349312</v>
+        <v>0.0002159567634976156</v>
       </c>
       <c r="B54">
         <v>87121</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.00011770329096449927</v>
+        <v>4.400545790161914e-5</v>
       </c>
       <c r="B55">
         <v>87121</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4.183995079642955e-5</v>
+        <v>0.0006455687489612671</v>
       </c>
       <c r="B56">
         <v>87121</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>5.1231311552157877e-5</v>
+        <v>0.00010405766385801485</v>
       </c>
       <c r="B57">
         <v>87121</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>6.11283272462515e-5</v>
+        <v>6.474814477996915e-5</v>
       </c>
       <c r="B58">
         <v>87121</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2.5374036162872926e-5</v>
+        <v>0.0001405108172072289</v>
       </c>
       <c r="B59">
         <v>87121</v>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>6.195208397841157e-5</v>
+        <v>0.00011021725137894123</v>
       </c>
       <c r="B60">
         <v>87121</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>9.55991462845418e-5</v>
+        <v>0.00011744017033166188</v>
       </c>
       <c r="B61">
         <v>87121</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3.6056489030045213e-5</v>
+        <v>4.662330647775548e-5</v>
       </c>
       <c r="B62">
         <v>87121</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>8.438503386898333e-5</v>
+        <v>3.4140981298946826e-5</v>
       </c>
       <c r="B63">
         <v>87121</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2.5805384630928074e-5</v>
+        <v>0.0005072383534283631</v>
       </c>
       <c r="B64">
         <v>87121</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3.981467453328946e-5</v>
+        <v>2.429727328845388e-5</v>
       </c>
       <c r="B65">
         <v>87121</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.00010339794479108377</v>
+        <v>3.863457580877139e-5</v>
       </c>
       <c r="B66">
         <v>87121</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>4.082367532376452e-5</v>
+        <v>0.00011952339685095126</v>
       </c>
       <c r="B67">
         <v>87121</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>8.676719054179216e-5</v>
+        <v>0.00012309768138862864</v>
       </c>
       <c r="B68">
         <v>87121</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.0001644631384216666</v>
+        <v>6.813756994361597e-5</v>
       </c>
       <c r="B69">
         <v>87121</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.00014645727376461082</v>
+        <v>0.00010427171759985754</v>
       </c>
       <c r="B70">
         <v>87121</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>6.464587526622267e-5</v>
+        <v>3.1175809414918376e-5</v>
       </c>
       <c r="B71">
         <v>87121</v>
@@ -18056,7 +18056,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>4.08686470869668e-5</v>
+        <v>8.4743521977515e-5</v>
       </c>
       <c r="B72">
         <v>87121</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>7.313217885496215e-5</v>
+        <v>6.144387321427303e-5</v>
       </c>
       <c r="B73">
         <v>87121</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5.925308086673908e-5</v>
+        <v>4.855803642911383e-5</v>
       </c>
       <c r="B74">
         <v>87121</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0001394974794273196</v>
+        <v>2.654127771251069e-5</v>
       </c>
       <c r="B75">
         <v>87121</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.00012686611476553367</v>
+        <v>0.00013036897860629892</v>
       </c>
       <c r="B76">
         <v>87121</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.00022050653091909567</v>
+        <v>0.0003509599399222907</v>
       </c>
       <c r="B77">
         <v>87121</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>8.440217415639495e-5</v>
+        <v>0.00011303791826478005</v>
       </c>
       <c r="B78">
         <v>87121</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>4.313694932278622e-5</v>
+        <v>0.00021392093540129054</v>
       </c>
       <c r="B79">
         <v>87121</v>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>6.720988819353124e-5</v>
+        <v>0.0001499162275955257</v>
       </c>
       <c r="B80">
         <v>87121</v>
@@ -18155,7 +18155,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>8.593963928049675e-5</v>
+        <v>5.7355418110915934e-5</v>
       </c>
       <c r="B81">
         <v>87121</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1.4672967182605134e-5</v>
+        <v>0.00011547504411879572</v>
       </c>
       <c r="B82">
         <v>87121</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.00016948978664999004</v>
+        <v>6.56966686385374e-5</v>
       </c>
       <c r="B83">
         <v>87121</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.0002247097519969543</v>
+        <v>4.085259622499393e-5</v>
       </c>
       <c r="B84">
         <v>87121</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>6.987522948875835e-5</v>
+        <v>0.00011554559019799626</v>
       </c>
       <c r="B85">
         <v>87121</v>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>4.57289893631696e-5</v>
+        <v>2.6740909689237924e-5</v>
       </c>
       <c r="B86">
         <v>87121</v>
@@ -18221,7 +18221,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3.366460412479455e-5</v>
+        <v>0.00019736729610997372</v>
       </c>
       <c r="B87">
         <v>87121</v>
@@ -18232,7 +18232,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.00021052688574840772</v>
+        <v>3.722943829131964e-5</v>
       </c>
       <c r="B88">
         <v>87121</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.00014586309760034055</v>
+        <v>3.002916313121773e-5</v>
       </c>
       <c r="B89">
         <v>87121</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1.9821645860673698e-5</v>
+        <v>0.00015996678087404348</v>
       </c>
       <c r="B90">
         <v>87121</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>8.373624854485229e-5</v>
+        <v>9.122750786261236e-5</v>
       </c>
       <c r="B91">
         <v>87121</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3.845500510379907e-5</v>
+        <v>0.0001552870825882735</v>
       </c>
       <c r="B92">
         <v>87121</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>4.4545898834513764e-5</v>
+        <v>4.6915880567155455e-5</v>
       </c>
       <c r="B93">
         <v>87121</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>7.453211510721758e-5</v>
+        <v>5.5283459001742585e-5</v>
       </c>
       <c r="B94">
         <v>87121</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.00042412864829088903</v>
+        <v>9.868668765733446e-6</v>
       </c>
       <c r="B95">
         <v>87121</v>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>7.831919615597371e-5</v>
+        <v>0.00015173415539493362</v>
       </c>
       <c r="B96">
         <v>87121</v>
@@ -18331,7 +18331,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>6.27086737985394e-5</v>
+        <v>0.0001141092197691762</v>
       </c>
       <c r="B97">
         <v>87121</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.00013296861329692433</v>
+        <v>6.77153655210816e-5</v>
       </c>
       <c r="B98">
         <v>87121</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.0001769675452472086</v>
+        <v>2.3450165212324237e-5</v>
       </c>
       <c r="B99">
         <v>87121</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.00016618072940133288</v>
+        <v>2.2471025211245887e-5</v>
       </c>
       <c r="B100">
         <v>87121</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.00014855311542660843</v>
+        <v>4.6850819416022205e-5</v>
       </c>
       <c r="B101">
         <v>87121</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.352801046900394e-6</v>
+        <v>6.38173573476095e-5</v>
       </c>
       <c r="B2">
         <v>69788</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9.109493323437268e-5</v>
+        <v>0.0004108880271202703</v>
       </c>
       <c r="B3">
         <v>69788</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4.591958418032142e-6</v>
+        <v>1.541926638314808e-5</v>
       </c>
       <c r="B4">
         <v>69788</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.1858854357876557e-5</v>
+        <v>6.55037719654552e-5</v>
       </c>
       <c r="B5">
         <v>69788</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4.747981447020657e-5</v>
+        <v>6.853408145620756e-5</v>
       </c>
       <c r="B6">
         <v>69788</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.9956588727532453e-5</v>
+        <v>9.229731417337749e-5</v>
       </c>
       <c r="B7">
         <v>69788</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0012662596115733424</v>
+        <v>3.666054778280689e-5</v>
       </c>
       <c r="B8">
         <v>69788</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.00013723994197656025</v>
+        <v>0.9794647848691074</v>
       </c>
       <c r="B9">
         <v>69788</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9.643858116597548e-5</v>
+        <v>0.00016009747584835795</v>
       </c>
       <c r="B10">
         <v>69788</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.6240597938986136e-5</v>
+        <v>4.309544058265255e-5</v>
       </c>
       <c r="B11">
         <v>69788</v>
@@ -18520,7 +18520,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5.8537014644349134e-5</v>
+        <v>3.10802972437465e-6</v>
       </c>
       <c r="B12">
         <v>69788</v>
@@ -18531,7 +18531,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.00043181239836785076</v>
+        <v>0.0002555412985131997</v>
       </c>
       <c r="B13">
         <v>69788</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8.204521801939115e-5</v>
+        <v>2.2924222899392017</v>
       </c>
       <c r="B14">
         <v>69788</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0005890842407908709</v>
+        <v>3.069283395264701e-5</v>
       </c>
       <c r="B15">
         <v>69788</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.8584429485979936e-5</v>
+        <v>4.031596455594529e-5</v>
       </c>
       <c r="B16">
         <v>69788</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7.330823404647237e-5</v>
+        <v>2.5527481269252343e-5</v>
       </c>
       <c r="B17">
         <v>69788</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.777556401415707e-5</v>
+        <v>0.000207182328371185</v>
       </c>
       <c r="B18">
         <v>69788</v>
@@ -18597,7 +18597,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0011759243906442982</v>
+        <v>6.303640786310437e-5</v>
       </c>
       <c r="B19">
         <v>69788</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.00011284205489070327</v>
+        <v>6.985011720354718e-5</v>
       </c>
       <c r="B20">
         <v>69788</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.014634017083727e-5</v>
+        <v>2.2353251684042226</v>
       </c>
       <c r="B21">
         <v>69788</v>
@@ -18630,7 +18630,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.8573741314672313e-5</v>
+        <v>1.9471227298600237e-5</v>
       </c>
       <c r="B22">
         <v>69788</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.0002860645654106057</v>
+        <v>1.0132075140129144</v>
       </c>
       <c r="B23">
         <v>69788</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.00018618389502931846</v>
+        <v>4.033798604404298</v>
       </c>
       <c r="B24">
         <v>69788</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.9795123371377359</v>
+        <v>0.00012716480392628227</v>
       </c>
       <c r="B25">
         <v>69788</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.00024392065074059797</v>
+        <v>6.411162074759434</v>
       </c>
       <c r="B26">
         <v>69788</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>5.22274827265479e-5</v>
+        <v>1.4611912764485788e-5</v>
       </c>
       <c r="B27">
         <v>69788</v>
@@ -18696,7 +18696,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2.5410787758732485e-5</v>
+        <v>4.9560318095433017e-5</v>
       </c>
       <c r="B28">
         <v>69788</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4.565790736774423e-5</v>
+        <v>2.855251821180607e-6</v>
       </c>
       <c r="B29">
         <v>69788</v>
@@ -18718,7 +18718,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.0001033131426083289</v>
+        <v>1.0203052808744782e-5</v>
       </c>
       <c r="B30">
         <v>69788</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0005280568316153874</v>
+        <v>6.221998082606282e-5</v>
       </c>
       <c r="B31">
         <v>69788</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.001907289872299681</v>
+        <v>2.6466440252725e-5</v>
       </c>
       <c r="B32">
         <v>69788</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8.605572235742711e-6</v>
+        <v>0.00019692827684202283</v>
       </c>
       <c r="B33">
         <v>69788</v>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.0001414468361495971</v>
+        <v>0.0037531007677245746</v>
       </c>
       <c r="B34">
         <v>69788</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8.793064684484281e-6</v>
+        <v>4.703917707606093e-5</v>
       </c>
       <c r="B35">
         <v>69788</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>7.380682630126639e-5</v>
+        <v>2.1765156587301552e-5</v>
       </c>
       <c r="B36">
         <v>69788</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>5.017465982152745e-5</v>
+        <v>0.0002892558069729259</v>
       </c>
       <c r="B37">
         <v>69788</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2.9411709107554827e-5</v>
+        <v>6.491602403832899e-5</v>
       </c>
       <c r="B38">
         <v>69788</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.00027632067586951404</v>
+        <v>3.6085163946205522e-6</v>
       </c>
       <c r="B39">
         <v>69788</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2.3556733759470972e-5</v>
+        <v>8.320765311218196e-7</v>
       </c>
       <c r="B40">
         <v>69788</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>6.411098394018174</v>
+        <v>3.2470916655070756e-5</v>
       </c>
       <c r="B41">
         <v>69788</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.00022607396261922758</v>
+        <v>0.00017540897252829956</v>
       </c>
       <c r="B42">
         <v>69788</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>6.954489965675351e-5</v>
+        <v>0.000419534027237836</v>
       </c>
       <c r="B43">
         <v>69788</v>
@@ -18872,7 +18872,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.00018372860054607736</v>
+        <v>0.00013669521429711748</v>
       </c>
       <c r="B44">
         <v>69788</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.0005875534995821177</v>
+        <v>9.397175656818101e-6</v>
       </c>
       <c r="B45">
         <v>69788</v>
@@ -18894,7 +18894,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6.766843588614336e-5</v>
+        <v>5.009063325545302e-5</v>
       </c>
       <c r="B46">
         <v>69788</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7.616598734976479e-5</v>
+        <v>9.029365752649726e-6</v>
       </c>
       <c r="B47">
         <v>69788</v>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4.0349501720104694e-5</v>
+        <v>4.533665542786155e-5</v>
       </c>
       <c r="B48">
         <v>69788</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7.727349489526266e-5</v>
+        <v>2.2353023962667176</v>
       </c>
       <c r="B49">
         <v>69788</v>
@@ -18938,7 +18938,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7.3162899794827e-5</v>
+        <v>4.7744361885891935e-5</v>
       </c>
       <c r="B50">
         <v>69788</v>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.00036226641511270796</v>
+        <v>3.365844753884186e-6</v>
       </c>
       <c r="B51">
         <v>69788</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1.5171415219518774e-5</v>
+        <v>0.00018093565457216206</v>
       </c>
       <c r="B52">
         <v>69788</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2.4993589913169304e-5</v>
+        <v>0.00018271286132994416</v>
       </c>
       <c r="B53">
         <v>69788</v>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>6.123628776167866e-6</v>
+        <v>1.050319563664905e-5</v>
       </c>
       <c r="B54">
         <v>69788</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>5.5862539871021716e-5</v>
+        <v>6.0649010411007785e-5</v>
       </c>
       <c r="B55">
         <v>69788</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1.2217980286597383e-5</v>
+        <v>1.0471661510893768e-5</v>
       </c>
       <c r="B56">
         <v>69788</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>7.330261061616828e-5</v>
+        <v>0.00010951117515803361</v>
       </c>
       <c r="B57">
         <v>69788</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>6.989483107319017e-5</v>
+        <v>3.316627554688344e-5</v>
       </c>
       <c r="B58">
         <v>69788</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4.379503610427519e-5</v>
+        <v>8.674444120034757e-6</v>
       </c>
       <c r="B59">
         <v>69788</v>
@@ -19048,7 +19048,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>6.06090998121305e-5</v>
+        <v>9.614829937251391e-5</v>
       </c>
       <c r="B60">
         <v>69788</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.00025278281547123915</v>
+        <v>2.064629933455094e-5</v>
       </c>
       <c r="B61">
         <v>69788</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>5.740903851134737e-5</v>
+        <v>0.0004447427443925126</v>
       </c>
       <c r="B62">
         <v>69788</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>4.378742060076017e-5</v>
+        <v>0.9794777384968172</v>
       </c>
       <c r="B63">
         <v>69788</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>8.467801144533088e-5</v>
+        <v>4.029685806825031e-5</v>
       </c>
       <c r="B64">
         <v>69788</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>8.355056781338012e-5</v>
+        <v>2.5071776272955714e-5</v>
       </c>
       <c r="B65">
         <v>69788</v>
@@ -19114,7 +19114,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>4.260936988722611e-5</v>
+        <v>2.496555591813503e-5</v>
       </c>
       <c r="B66">
         <v>69788</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1.6586889347499944e-5</v>
+        <v>2.816004719390714e-5</v>
       </c>
       <c r="B67">
         <v>69788</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2.131557048445019e-5</v>
+        <v>3.3422701663947105e-5</v>
       </c>
       <c r="B68">
         <v>69788</v>
@@ -19147,7 +19147,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.00016743489646486303</v>
+        <v>1.1040901187335321e-5</v>
       </c>
       <c r="B69">
         <v>69788</v>
@@ -19158,7 +19158,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>6.297454520462244e-5</v>
+        <v>2.1290256866920967e-5</v>
       </c>
       <c r="B70">
         <v>69788</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3.3511012676673274e-5</v>
+        <v>5.203568156282363e-5</v>
       </c>
       <c r="B71">
         <v>69788</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.000839769192726736</v>
+        <v>8.488793922801035e-6</v>
       </c>
       <c r="B72">
         <v>69788</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3.577734119454585e-5</v>
+        <v>5.81221428219916e-5</v>
       </c>
       <c r="B73">
         <v>69788</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3.741074822374625e-5</v>
+        <v>7.718856622361972e-5</v>
       </c>
       <c r="B74">
         <v>69788</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.00014288617369981156</v>
+        <v>2.7125723222080566e-5</v>
       </c>
       <c r="B75">
         <v>69788</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1.7603416177150736e-5</v>
+        <v>8.232296822855038e-5</v>
       </c>
       <c r="B76">
         <v>69788</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2.5309480488310632e-5</v>
+        <v>0.00015658154364671178</v>
       </c>
       <c r="B77">
         <v>69788</v>
@@ -19246,7 +19246,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5.174403545042134e-5</v>
+        <v>1.0131897634881175</v>
       </c>
       <c r="B78">
         <v>69788</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2.0780411655219763e-5</v>
+        <v>0.0006701683114030167</v>
       </c>
       <c r="B79">
         <v>69788</v>
@@ -19268,7 +19268,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.0004799052368902917</v>
+        <v>5.8947466146839055e-5</v>
       </c>
       <c r="B80">
         <v>69788</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1.2785126026404687e-5</v>
+        <v>1.0141321266174674</v>
       </c>
       <c r="B81">
         <v>69788</v>
@@ -19290,7 +19290,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2.3916449336330536e-5</v>
+        <v>5.655041878203936e-6</v>
       </c>
       <c r="B82">
         <v>69788</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2.8809508774149612e-5</v>
+        <v>0.0001637156623943363</v>
       </c>
       <c r="B83">
         <v>69788</v>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>6.562569181885966e-5</v>
+        <v>8.182473027301476e-5</v>
       </c>
       <c r="B84">
         <v>69788</v>
@@ -19323,7 +19323,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1.4623842619199835e-5</v>
+        <v>0.0001370864700668039</v>
       </c>
       <c r="B85">
         <v>69788</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.00010952870185014448</v>
+        <v>4.66201856488977</v>
       </c>
       <c r="B86">
         <v>69788</v>
@@ -19345,7 +19345,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1.2365017802352206e-5</v>
+        <v>2.0724963044233823e-5</v>
       </c>
       <c r="B87">
         <v>69788</v>
@@ -19356,7 +19356,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.0002318890256847256</v>
+        <v>3.0283452752300706e-5</v>
       </c>
       <c r="B88">
         <v>69788</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2.010980612650687e-5</v>
+        <v>4.2919503768522733e-5</v>
       </c>
       <c r="B89">
         <v>69788</v>
@@ -19378,7 +19378,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2.301905796638787e-6</v>
+        <v>4.519357550157654e-5</v>
       </c>
       <c r="B90">
         <v>69788</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5.471270922847872e-5</v>
+        <v>0.0003056221828560641</v>
       </c>
       <c r="B91">
         <v>69788</v>
@@ -19400,7 +19400,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1.9389006421927094e-5</v>
+        <v>0.0012795151044305998</v>
       </c>
       <c r="B92">
         <v>69788</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3.648669684474082e-5</v>
+        <v>3.263261142534027e-5</v>
       </c>
       <c r="B93">
         <v>69788</v>
@@ -19422,7 +19422,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.00038252698718267106</v>
+        <v>9.103379940598194e-5</v>
       </c>
       <c r="B94">
         <v>69788</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.0001373882471927808</v>
+        <v>4.534749585988471e-5</v>
       </c>
       <c r="B95">
         <v>69788</v>
@@ -19444,7 +19444,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1.0133441360767577</v>
+        <v>1.1917648180109024e-5</v>
       </c>
       <c r="B96">
         <v>69788</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>4.912088483968286e-5</v>
+        <v>0.0008470813635705532</v>
       </c>
       <c r="B97">
         <v>69788</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>4.033780865350138</v>
+        <v>2.885388296024428e-6</v>
       </c>
       <c r="B98">
         <v>69788</v>
@@ -19477,7 +19477,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.00011315847838805827</v>
+        <v>3.660922671649261e-5</v>
       </c>
       <c r="B99">
         <v>69788</v>
@@ -19488,7 +19488,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3.3699879451556797e-6</v>
+        <v>0.0023014796946666635</v>
       </c>
       <c r="B100">
         <v>69788</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.00015804967476954653</v>
+        <v>4.040085269279196e-5</v>
       </c>
       <c r="B101">
         <v>69788</v>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3827.3912063016905</v>
+        <v>10206.266489408517</v>
       </c>
       <c r="B2">
         <v>201736</v>
@@ -19545,7 +19545,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5096.799425632496</v>
+        <v>4961.5603178887195</v>
       </c>
       <c r="B3">
         <v>201736</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>6034.551957387204</v>
+        <v>5808.809750623879</v>
       </c>
       <c r="B4">
         <v>201736</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5949.229113408506</v>
+        <v>14234.455686318812</v>
       </c>
       <c r="B5">
         <v>201736</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>13667.716626922487</v>
+        <v>12937.665883173671</v>
       </c>
       <c r="B6">
         <v>201736</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>11019.718688566341</v>
+        <v>8629.818885290766</v>
       </c>
       <c r="B7">
         <v>201736</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2656.4856453071407</v>
+        <v>3409.285195352728</v>
       </c>
       <c r="B8">
         <v>201736</v>
@@ -19611,7 +19611,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6213.477604788026</v>
+        <v>11470.808584423059</v>
       </c>
       <c r="B9">
         <v>201736</v>
@@ -19622,7 +19622,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6001.592772384132</v>
+        <v>4867.650903345046</v>
       </c>
       <c r="B10">
         <v>201736</v>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>13033.16112443659</v>
+        <v>5433.584603060739</v>
       </c>
       <c r="B11">
         <v>201736</v>
@@ -19644,7 +19644,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5406.376031655373</v>
+        <v>6086.342570817649</v>
       </c>
       <c r="B12">
         <v>201736</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3920.0898978648984</v>
+        <v>6783.675929038178</v>
       </c>
       <c r="B13">
         <v>201736</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5764.722602084385</v>
+        <v>6530.194395231771</v>
       </c>
       <c r="B14">
         <v>201736</v>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4816.972877438615</v>
+        <v>7138.670123095137</v>
       </c>
       <c r="B15">
         <v>201736</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>11934.78562454749</v>
+        <v>6866.019078647061</v>
       </c>
       <c r="B16">
         <v>201736</v>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>13323.377352728454</v>
+        <v>5576.281967063194</v>
       </c>
       <c r="B17">
         <v>201736</v>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>12006.858290774024</v>
+        <v>12065.429011802758</v>
       </c>
       <c r="B18">
         <v>201736</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5771.56135871568</v>
+        <v>4988.047158092042</v>
       </c>
       <c r="B19">
         <v>201736</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5307.034505743775</v>
+        <v>5887.9692570649495</v>
       </c>
       <c r="B20">
         <v>201736</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5592.612838857247</v>
+        <v>6018.22250413879</v>
       </c>
       <c r="B21">
         <v>201736</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13173.080061536295</v>
+        <v>4296.688524044657</v>
       </c>
       <c r="B22">
         <v>201736</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2791.794267945308</v>
+        <v>6411.365018361859</v>
       </c>
       <c r="B23">
         <v>201736</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>5094.457782552317</v>
+        <v>5532.903890670532</v>
       </c>
       <c r="B24">
         <v>201736</v>
@@ -19787,7 +19787,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>5673.930191484549</v>
+        <v>3816.630926298327</v>
       </c>
       <c r="B25">
         <v>201736</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>6442.710772820745</v>
+        <v>5716.762119088009</v>
       </c>
       <c r="B26">
         <v>201736</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>8131.68801692783</v>
+        <v>12418.263807932646</v>
       </c>
       <c r="B27">
         <v>201736</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5725.732168672934</v>
+        <v>5973.123316519712</v>
       </c>
       <c r="B28">
         <v>201736</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4798.43045923846</v>
+        <v>12617.219744969128</v>
       </c>
       <c r="B29">
         <v>201736</v>
@@ -19842,7 +19842,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>11025.040824935137</v>
+        <v>4798.1794005659285</v>
       </c>
       <c r="B30">
         <v>201736</v>
@@ -19853,7 +19853,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5668.579613920654</v>
+        <v>12232.821039627746</v>
       </c>
       <c r="B31">
         <v>201736</v>
@@ -19864,7 +19864,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>9219.817164380911</v>
+        <v>11106.878275953804</v>
       </c>
       <c r="B32">
         <v>201736</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5075.228709291834</v>
+        <v>5533.430927123811</v>
       </c>
       <c r="B33">
         <v>201736</v>
@@ -19886,7 +19886,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2586.5965988761163</v>
+        <v>6000.681735801252</v>
       </c>
       <c r="B34">
         <v>201736</v>
@@ -19897,7 +19897,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4940.050214306977</v>
+        <v>13915.134914796687</v>
       </c>
       <c r="B35">
         <v>201736</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>5828.483382176022</v>
+        <v>12744.688021523893</v>
       </c>
       <c r="B36">
         <v>201736</v>
@@ -19919,7 +19919,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4764.678293610457</v>
+        <v>12173.776503547415</v>
       </c>
       <c r="B37">
         <v>201736</v>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>6169.589352015566</v>
+        <v>4779.313564826343</v>
       </c>
       <c r="B38">
         <v>201736</v>
@@ -19941,7 +19941,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3224.521216399371</v>
+        <v>12709.019647697674</v>
       </c>
       <c r="B39">
         <v>201736</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>5633.88669240371</v>
+        <v>4177.53694805003</v>
       </c>
       <c r="B40">
         <v>201736</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5846.078963544924</v>
+        <v>4590.342807739649</v>
       </c>
       <c r="B41">
         <v>201736</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>6026.122389284674</v>
+        <v>4197.382698535082</v>
       </c>
       <c r="B42">
         <v>201736</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8312.25901751313</v>
+        <v>6648.622211436432</v>
       </c>
       <c r="B43">
         <v>201736</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>13010.1854737213</v>
+        <v>4978.586700577096</v>
       </c>
       <c r="B44">
         <v>201736</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>7225.311406076298</v>
+        <v>5756.136810712025</v>
       </c>
       <c r="B45">
         <v>201736</v>
@@ -20018,7 +20018,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3941.4147203102293</v>
+        <v>13226.889231490844</v>
       </c>
       <c r="B46">
         <v>201736</v>
@@ -20029,7 +20029,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>12593.504570662124</v>
+        <v>5317.502232297647</v>
       </c>
       <c r="B47">
         <v>201736</v>
@@ -20040,7 +20040,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>12331.179637243888</v>
+        <v>2566.3514597972317</v>
       </c>
       <c r="B48">
         <v>201736</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>13432.575323186233</v>
+        <v>3973.1153940156655</v>
       </c>
       <c r="B49">
         <v>201736</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4803.937316713716</v>
+        <v>5444.365399043443</v>
       </c>
       <c r="B50">
         <v>201736</v>
@@ -20073,7 +20073,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3547.1568362877806</v>
+        <v>13415.203408491936</v>
       </c>
       <c r="B51">
         <v>201736</v>
@@ -20084,7 +20084,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7236.657812134446</v>
+        <v>12921.16434728714</v>
       </c>
       <c r="B52">
         <v>201736</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>10516.599804826004</v>
+        <v>6173.041786742571</v>
       </c>
       <c r="B53">
         <v>201736</v>
@@ -20106,7 +20106,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>13268.70440876825</v>
+        <v>10069.60048738204</v>
       </c>
       <c r="B54">
         <v>201736</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>12499.767479641496</v>
+        <v>4570.06558604828</v>
       </c>
       <c r="B55">
         <v>201736</v>
@@ -20128,7 +20128,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>5916.92312049797</v>
+        <v>6529.282716800153</v>
       </c>
       <c r="B56">
         <v>201736</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3747.392983234724</v>
+        <v>5977.384355284537</v>
       </c>
       <c r="B57">
         <v>201736</v>
@@ -20150,7 +20150,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12951.568466734949</v>
+        <v>14514.522064601937</v>
       </c>
       <c r="B58">
         <v>201736</v>
@@ -20161,7 +20161,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3884.2229134455156</v>
+        <v>11623.08306783513</v>
       </c>
       <c r="B59">
         <v>201736</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3634.889698689087</v>
+        <v>5225.729725989608</v>
       </c>
       <c r="B60">
         <v>201736</v>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12234.057783466807</v>
+        <v>5348.571868463936</v>
       </c>
       <c r="B61">
         <v>201736</v>
@@ -20194,7 +20194,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>5977.882615588827</v>
+        <v>13946.160556966079</v>
       </c>
       <c r="B62">
         <v>201736</v>
@@ -20205,7 +20205,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>5873.860774493551</v>
+        <v>5636.8240377109905</v>
       </c>
       <c r="B63">
         <v>201736</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6165.186094706354</v>
+        <v>11313.452503665718</v>
       </c>
       <c r="B64">
         <v>201736</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3713.2618724677923</v>
+        <v>13650.803725189846</v>
       </c>
       <c r="B65">
         <v>201736</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>4954.545834950872</v>
+        <v>5535.348673928182</v>
       </c>
       <c r="B66">
         <v>201736</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>5513.655055858428</v>
+        <v>12696.758971055711</v>
       </c>
       <c r="B67">
         <v>201736</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>5930.042161034655</v>
+        <v>13227.669713564426</v>
       </c>
       <c r="B68">
         <v>201736</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3668.9481360200953</v>
+        <v>6302.24974376028</v>
       </c>
       <c r="B69">
         <v>201736</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>6588.06823561857</v>
+        <v>3903.5003171175194</v>
       </c>
       <c r="B70">
         <v>201736</v>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>7056.216753143433</v>
+        <v>5292.225721844561</v>
       </c>
       <c r="B71">
         <v>201736</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>4733.421349135691</v>
+        <v>4444.875434458336</v>
       </c>
       <c r="B72">
         <v>201736</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>6912.503802028103</v>
+        <v>5040.853698365578</v>
       </c>
       <c r="B73">
         <v>201736</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5145.281345889969</v>
+        <v>6595.774873941749</v>
       </c>
       <c r="B74">
         <v>201736</v>
@@ -20337,7 +20337,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>6574.806149259031</v>
+        <v>6135.162525564358</v>
       </c>
       <c r="B75">
         <v>201736</v>
@@ -20348,7 +20348,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>5085.127166040245</v>
+        <v>6536.6903645723105</v>
       </c>
       <c r="B76">
         <v>201736</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>5401.295092051963</v>
+        <v>3122.7454961846815</v>
       </c>
       <c r="B77">
         <v>201736</v>
@@ -20370,7 +20370,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5820.647339260848</v>
+        <v>5699.286644853459</v>
       </c>
       <c r="B78">
         <v>201736</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>6487.3217207646685</v>
+        <v>13628.104616256747</v>
       </c>
       <c r="B79">
         <v>201736</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>11194.414737455241</v>
+        <v>5701.660303491888</v>
       </c>
       <c r="B80">
         <v>201736</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>11777.08218489237</v>
+        <v>11043.16520215215</v>
       </c>
       <c r="B81">
         <v>201736</v>
@@ -20414,7 +20414,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3532.7628854669383</v>
+        <v>6183.353867173302</v>
       </c>
       <c r="B82">
         <v>201736</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4194.069669841643</v>
+        <v>2928.2018362036724</v>
       </c>
       <c r="B83">
         <v>201736</v>
@@ -20436,7 +20436,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>9827.071018486795</v>
+        <v>3412.7311782135075</v>
       </c>
       <c r="B84">
         <v>201736</v>
@@ -20447,7 +20447,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>12463.474490882665</v>
+        <v>4783.180793291031</v>
       </c>
       <c r="B85">
         <v>201736</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>5912.63020260542</v>
+        <v>5688.851469590765</v>
       </c>
       <c r="B86">
         <v>201736</v>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4917.332364387599</v>
+        <v>5551.249883527598</v>
       </c>
       <c r="B87">
         <v>201736</v>
@@ -20480,7 +20480,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>13067.088920212913</v>
+        <v>5549.134718797453</v>
       </c>
       <c r="B88">
         <v>201736</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3746.118562378222</v>
+        <v>4982.134206758872</v>
       </c>
       <c r="B89">
         <v>201736</v>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>4175.831278096099</v>
+        <v>4034.089430782369</v>
       </c>
       <c r="B90">
         <v>201736</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5569.896843323942</v>
+        <v>11645.884576188968</v>
       </c>
       <c r="B91">
         <v>201736</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>9925.97098404773</v>
+        <v>12675.858885416754</v>
       </c>
       <c r="B92">
         <v>201736</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>5095.632665018258</v>
+        <v>4825.284308102931</v>
       </c>
       <c r="B93">
         <v>201736</v>
@@ -20546,7 +20546,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>5061.962913378744</v>
+        <v>4655.549546040984</v>
       </c>
       <c r="B94">
         <v>201736</v>
@@ -20557,7 +20557,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>5908.372979507116</v>
+        <v>7698.0309739326</v>
       </c>
       <c r="B95">
         <v>201736</v>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>6446.417635901131</v>
+        <v>5285.956605417465</v>
       </c>
       <c r="B96">
         <v>201736</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>13016.79694053714</v>
+        <v>3945.9498944450534</v>
       </c>
       <c r="B97">
         <v>201736</v>
@@ -20590,7 +20590,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>6162.963065527412</v>
+        <v>4438.166372896201</v>
       </c>
       <c r="B98">
         <v>201736</v>
@@ -20601,7 +20601,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>5534.522862062831</v>
+        <v>5886.044667073271</v>
       </c>
       <c r="B99">
         <v>201736</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>5009.674018464279</v>
+        <v>4510.122750284074</v>
       </c>
       <c r="B100">
         <v>201736</v>
@@ -20623,7 +20623,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>4602.766814597446</v>
+        <v>5818.1132501887805</v>
       </c>
       <c r="B101">
         <v>201736</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4068.1280427202582</v>
+        <v>30649.592555669136</v>
       </c>
       <c r="B2">
         <v>8000000</v>
@@ -20669,7 +20669,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9656.925133010373</v>
+        <v>25343.798059310764</v>
       </c>
       <c r="B3">
         <v>8000000</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>40272.72083679866</v>
+        <v>3082.632309372537</v>
       </c>
       <c r="B4">
         <v>8000000</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>116107.16896634456</v>
+        <v>18060.59622965008</v>
       </c>
       <c r="B5">
         <v>8000000</v>
@@ -20702,7 +20702,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>7615.009467352182</v>
+        <v>26971.085890097893</v>
       </c>
       <c r="B6">
         <v>8000000</v>
@@ -20713,7 +20713,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>123752.14382198453</v>
+        <v>12160.770017050207</v>
       </c>
       <c r="B7">
         <v>8000000</v>
@@ -20724,7 +20724,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>42548.5855202144</v>
+        <v>71559.165022186</v>
       </c>
       <c r="B8">
         <v>8000000</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>87988.05222564144</v>
+        <v>10686.056663353229</v>
       </c>
       <c r="B9">
         <v>8000000</v>
@@ -20746,7 +20746,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>88135.96777556092</v>
+        <v>85922.42653543502</v>
       </c>
       <c r="B10">
         <v>8000000</v>
@@ -20757,7 +20757,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9155.320744684897</v>
+        <v>1746.9929045820609</v>
       </c>
       <c r="B11">
         <v>8000000</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>9766.460794620216</v>
+        <v>55723.73135137791</v>
       </c>
       <c r="B12">
         <v>8000000</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>58824.161716987845</v>
+        <v>125519.04251075163</v>
       </c>
       <c r="B13">
         <v>8000000</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>32229.87922342634</v>
+        <v>2329.1429566964507</v>
       </c>
       <c r="B14">
         <v>8000000</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>21233.83732944791</v>
+        <v>15583.18215423543</v>
       </c>
       <c r="B15">
         <v>8000000</v>
@@ -20812,7 +20812,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>15402.549338070676</v>
+        <v>85749.3239510972</v>
       </c>
       <c r="B16">
         <v>8000000</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10864.023585228482</v>
+        <v>66762.29944169708</v>
       </c>
       <c r="B17">
         <v>8000000</v>
@@ -20834,7 +20834,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>10352.458692925982</v>
+        <v>36652.05996006727</v>
       </c>
       <c r="B18">
         <v>8000000</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>107976.80980684422</v>
+        <v>33938.821882021846</v>
       </c>
       <c r="B19">
         <v>8000000</v>
@@ -20856,7 +20856,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>33902.112588462536</v>
+        <v>30333.084403104236</v>
       </c>
       <c r="B20">
         <v>8000000</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6181.582621246576</v>
+        <v>30432.13589132391</v>
       </c>
       <c r="B21">
         <v>8000000</v>
@@ -20878,7 +20878,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>12185.599767310545</v>
+        <v>69471.3385196263</v>
       </c>
       <c r="B22">
         <v>8000000</v>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>12408.591207768768</v>
+        <v>87581.77933807671</v>
       </c>
       <c r="B23">
         <v>8000000</v>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>95520.15826428868</v>
+        <v>16404.806657113135</v>
       </c>
       <c r="B24">
         <v>8000000</v>
@@ -20911,7 +20911,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>29032.762389751617</v>
+        <v>101296.16403074376</v>
       </c>
       <c r="B25">
         <v>8000000</v>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>14985.90922649391</v>
+        <v>267759.71958139166</v>
       </c>
       <c r="B26">
         <v>8000000</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>75652.95779423788</v>
+        <v>8478.130481168628</v>
       </c>
       <c r="B27">
         <v>8000000</v>
@@ -20944,7 +20944,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>57706.64666390885</v>
+        <v>17666.594128431752</v>
       </c>
       <c r="B28">
         <v>8000000</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2379.415444239974</v>
+        <v>81324.861363695</v>
       </c>
       <c r="B29">
         <v>8000000</v>
@@ -20966,7 +20966,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>43738.35123194172</v>
+        <v>7446.670948562212</v>
       </c>
       <c r="B30">
         <v>8000000</v>
@@ -20977,7 +20977,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>179436.4804091826</v>
+        <v>3203.251274332404</v>
       </c>
       <c r="B31">
         <v>8000000</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>188808.75907898694</v>
+        <v>150008.97415656783</v>
       </c>
       <c r="B32">
         <v>8000000</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>81551.23553543631</v>
+        <v>28290.434214618057</v>
       </c>
       <c r="B33">
         <v>8000000</v>
@@ -21010,7 +21010,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>134074.7202554308</v>
+        <v>1599.8841038513929</v>
       </c>
       <c r="B34">
         <v>8000000</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5733.609800308943</v>
+        <v>45150.59052669443</v>
       </c>
       <c r="B35">
         <v>8000000</v>
@@ -21032,7 +21032,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>37945.8354917448</v>
+        <v>53052.81237492012</v>
       </c>
       <c r="B36">
         <v>8000000</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>19103.226919927634</v>
+        <v>99790.24936424941</v>
       </c>
       <c r="B37">
         <v>8000000</v>
@@ -21054,7 +21054,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>41463.76323292218</v>
+        <v>69411.46996835526</v>
       </c>
       <c r="B38">
         <v>8000000</v>
@@ -21065,7 +21065,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>17163.29761476</v>
+        <v>79940.85093286261</v>
       </c>
       <c r="B39">
         <v>8000000</v>
@@ -21076,7 +21076,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>35166.353474634234</v>
+        <v>29657.553661918268</v>
       </c>
       <c r="B40">
         <v>8000000</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>31798.24978003837</v>
+        <v>32843.03315599263</v>
       </c>
       <c r="B41">
         <v>8000000</v>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>16248.290326658636</v>
+        <v>28304.435703966767</v>
       </c>
       <c r="B42">
         <v>8000000</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>34060.65654619981</v>
+        <v>5292.159142817371</v>
       </c>
       <c r="B43">
         <v>8000000</v>
@@ -21120,7 +21120,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>33814.55908527039</v>
+        <v>47213.74195279996</v>
       </c>
       <c r="B44">
         <v>8000000</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>12208.40459625423</v>
+        <v>12593.427368009463</v>
       </c>
       <c r="B45">
         <v>8000000</v>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>60321.22607000265</v>
+        <v>13788.446860369528</v>
       </c>
       <c r="B46">
         <v>8000000</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>34967.02444763109</v>
+        <v>34506.985761507996</v>
       </c>
       <c r="B47">
         <v>8000000</v>
@@ -21164,7 +21164,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>35372.41398677626</v>
+        <v>7068.212995661888</v>
       </c>
       <c r="B48">
         <v>8000000</v>
@@ -21175,7 +21175,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>174266.57562350482</v>
+        <v>94253.95575796999</v>
       </c>
       <c r="B49">
         <v>8000000</v>
@@ -21186,7 +21186,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1731.2321262387559</v>
+        <v>40696.97169270832</v>
       </c>
       <c r="B50">
         <v>8000000</v>
@@ -21197,7 +21197,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>216639.88609544933</v>
+        <v>29413.16479063034</v>
       </c>
       <c r="B51">
         <v>8000000</v>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4537.880685172975</v>
+        <v>45621.508347367635</v>
       </c>
       <c r="B52">
         <v>8000000</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>159143.39240925014</v>
+        <v>43523.289775805315</v>
       </c>
       <c r="B53">
         <v>8000000</v>
@@ -21230,7 +21230,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>17986.784897111356</v>
+        <v>48110.88722717902</v>
       </c>
       <c r="B54">
         <v>8000000</v>
@@ -21241,7 +21241,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>100228.6760777235</v>
+        <v>79795.10892094579</v>
       </c>
       <c r="B55">
         <v>8000000</v>
@@ -21252,7 +21252,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>50806.530718676746</v>
+        <v>3538.9099157024175</v>
       </c>
       <c r="B56">
         <v>8000000</v>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>77811.06989297736</v>
+        <v>6250.769813608378</v>
       </c>
       <c r="B57">
         <v>8000000</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>218340.59972489625</v>
+        <v>104401.21262909658</v>
       </c>
       <c r="B58">
         <v>8000000</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>30842.59058203129</v>
+        <v>23411.205170070753</v>
       </c>
       <c r="B59">
         <v>8000000</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>16104.793007525033</v>
+        <v>4672.643653463572</v>
       </c>
       <c r="B60">
         <v>8000000</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>61777.542048429605</v>
+        <v>25472.104576790705</v>
       </c>
       <c r="B61">
         <v>8000000</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>20554.146657894365</v>
+        <v>106376.48200665228</v>
       </c>
       <c r="B62">
         <v>8000000</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>23308.193634476047</v>
+        <v>45464.62091796426</v>
       </c>
       <c r="B63">
         <v>8000000</v>
@@ -21340,7 +21340,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>33627.152839399874</v>
+        <v>10348.931660280563</v>
       </c>
       <c r="B64">
         <v>8000000</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>20274.49923692923</v>
+        <v>136949.16753031313</v>
       </c>
       <c r="B65">
         <v>8000000</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>33984.83720349101</v>
+        <v>61315.09146380611</v>
       </c>
       <c r="B66">
         <v>8000000</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>10730.245568966027</v>
+        <v>20413.335308358073</v>
       </c>
       <c r="B67">
         <v>8000000</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>65336.07620577421</v>
+        <v>46046.12125303596</v>
       </c>
       <c r="B68">
         <v>8000000</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>15875.78354044538</v>
+        <v>10401.992420598865</v>
       </c>
       <c r="B69">
         <v>8000000</v>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>20546.974521830678</v>
+        <v>15158.516007026192</v>
       </c>
       <c r="B70">
         <v>8000000</v>
@@ -21417,7 +21417,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>123778.10537842289</v>
+        <v>26252.070345226675</v>
       </c>
       <c r="B71">
         <v>8000000</v>
@@ -21428,7 +21428,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>10853.990297231823</v>
+        <v>21794.76152015978</v>
       </c>
       <c r="B72">
         <v>8000000</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>10357.660779171158</v>
+        <v>44929.194618751295</v>
       </c>
       <c r="B73">
         <v>8000000</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12052.33932390809</v>
+        <v>130711.32349999994</v>
       </c>
       <c r="B74">
         <v>8000000</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>4543.816747233272</v>
+        <v>41273.14264944475</v>
       </c>
       <c r="B75">
         <v>8000000</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>55416.76651704218</v>
+        <v>10494.917963953689</v>
       </c>
       <c r="B76">
         <v>8000000</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>7897.967637840658</v>
+        <v>18027.822882330045</v>
       </c>
       <c r="B77">
         <v>8000000</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>103705.44511615485</v>
+        <v>30872.319614856504</v>
       </c>
       <c r="B78">
         <v>8000000</v>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>68145.29946468677</v>
+        <v>72804.47634680942</v>
       </c>
       <c r="B79">
         <v>8000000</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>89142.02206893358</v>
+        <v>23186.39344427176</v>
       </c>
       <c r="B80">
         <v>8000000</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4397.401206402108</v>
+        <v>9173.068848159863</v>
       </c>
       <c r="B81">
         <v>8000000</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>83863.28769177385</v>
+        <v>21425.304086861666</v>
       </c>
       <c r="B82">
         <v>8000000</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>16388.268242213875</v>
+        <v>111109.49155968241</v>
       </c>
       <c r="B83">
         <v>8000000</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>97112.47487888858</v>
+        <v>37257.44264381658</v>
       </c>
       <c r="B84">
         <v>8000000</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3909.003887232393</v>
+        <v>19344.94342560321</v>
       </c>
       <c r="B85">
         <v>8000000</v>
@@ -21582,7 +21582,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>74170.45466866344</v>
+        <v>20972.21880437259</v>
       </c>
       <c r="B86">
         <v>8000000</v>
@@ -21593,7 +21593,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>120648.99855502136</v>
+        <v>41240.68242251873</v>
       </c>
       <c r="B87">
         <v>8000000</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>9601.811121274019</v>
+        <v>60574.89689274691</v>
       </c>
       <c r="B88">
         <v>8000000</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>44615.95652415976</v>
+        <v>49875.36995141208</v>
       </c>
       <c r="B89">
         <v>8000000</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>29933.060422807466</v>
+        <v>2954.328737949021</v>
       </c>
       <c r="B90">
         <v>8000000</v>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>6219.531703475863</v>
+        <v>46089.02178934403</v>
       </c>
       <c r="B91">
         <v>8000000</v>
@@ -21648,7 +21648,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>9355.949737473391</v>
+        <v>62724.87706079986</v>
       </c>
       <c r="B92">
         <v>8000000</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>34859.39980168897</v>
+        <v>50263.72034365125</v>
       </c>
       <c r="B93">
         <v>8000000</v>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>39606.6390905811</v>
+        <v>24244.00659281388</v>
       </c>
       <c r="B94">
         <v>8000000</v>
@@ -21681,7 +21681,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>34597.69188999012</v>
+        <v>3603.947841175832</v>
       </c>
       <c r="B95">
         <v>8000000</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>62418.92037074827</v>
+        <v>9984.88371733902</v>
       </c>
       <c r="B96">
         <v>8000000</v>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>6231.557779960334</v>
+        <v>30332.337127163308</v>
       </c>
       <c r="B97">
         <v>8000000</v>
@@ -21714,7 +21714,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>17042.921162243932</v>
+        <v>22135.87571094185</v>
       </c>
       <c r="B98">
         <v>8000000</v>
@@ -21725,7 +21725,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>37922.88604708633</v>
+        <v>109732.58174698986</v>
       </c>
       <c r="B99">
         <v>8000000</v>
@@ -21736,7 +21736,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>4586.711669618264</v>
+        <v>7287.904988689348</v>
       </c>
       <c r="B100">
         <v>8000000</v>
@@ -21747,7 +21747,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>181024.48515883088</v>
+        <v>187032.62984969094</v>
       </c>
       <c r="B101">
         <v>8000000</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.04117824678308769</v>
+        <v>0.2048714570745074</v>
       </c>
       <c r="B2">
         <v>353418</v>
@@ -21793,7 +21793,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.06467107298724593</v>
+        <v>0.027656176172364513</v>
       </c>
       <c r="B3">
         <v>353418</v>
@@ -21804,7 +21804,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.2541670507879357</v>
+        <v>0.22787621407794859</v>
       </c>
       <c r="B4">
         <v>353418</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.03615673919820682</v>
+        <v>0.06668723919164803</v>
       </c>
       <c r="B5">
         <v>353418</v>
@@ -21826,7 +21826,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.017789345737996978</v>
+        <v>0.2844400502438136</v>
       </c>
       <c r="B6">
         <v>353418</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1902499623089796</v>
+        <v>0.19738459416670495</v>
       </c>
       <c r="B7">
         <v>353418</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.029779012427245028</v>
+        <v>0.010347882765408182</v>
       </c>
       <c r="B8">
         <v>353418</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.03440389644380234</v>
+        <v>0.009426763618031195</v>
       </c>
       <c r="B9">
         <v>353418</v>
@@ -21870,7 +21870,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.018153399823088803</v>
+        <v>0.020072154207103236</v>
       </c>
       <c r="B10">
         <v>353418</v>
@@ -21881,7 +21881,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0888248088418311</v>
+        <v>0.03564301377071422</v>
       </c>
       <c r="B11">
         <v>353418</v>
@@ -21892,7 +21892,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.032538076465553796</v>
+        <v>0.032329611065094216</v>
       </c>
       <c r="B12">
         <v>353418</v>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.06884016708106348</v>
+        <v>0.014204255251588416</v>
       </c>
       <c r="B13">
         <v>353418</v>
@@ -21914,7 +21914,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.02688389540136985</v>
+        <v>0.10023823297456261</v>
       </c>
       <c r="B14">
         <v>353418</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.00493259565052966</v>
+        <v>0.026097816193575117</v>
       </c>
       <c r="B15">
         <v>353418</v>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.030711387117110613</v>
+        <v>0.050138116521851205</v>
       </c>
       <c r="B16">
         <v>353418</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.04521491187946991</v>
+        <v>0.06918215384860078</v>
       </c>
       <c r="B17">
         <v>353418</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.3008236584848655</v>
+        <v>0.17101477681403887</v>
       </c>
       <c r="B18">
         <v>353418</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.13976063126976074</v>
+        <v>0.09361401193272172</v>
       </c>
       <c r="B19">
         <v>353418</v>
@@ -21980,7 +21980,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.11310481863775129</v>
+        <v>0.09945765827749195</v>
       </c>
       <c r="B20">
         <v>353418</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.030005103506692037</v>
+        <v>0.06294525303582699</v>
       </c>
       <c r="B21">
         <v>353418</v>
@@ -22002,7 +22002,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.017227952480358022</v>
+        <v>0.016415835840910137</v>
       </c>
       <c r="B22">
         <v>353418</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.08659816932258614</v>
+        <v>0.06673280905875754</v>
       </c>
       <c r="B23">
         <v>353418</v>
@@ -22024,7 +22024,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.03050527689916957</v>
+        <v>0.05326973890298082</v>
       </c>
       <c r="B24">
         <v>353418</v>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0766054938675435</v>
+        <v>0.02620488307324864</v>
       </c>
       <c r="B25">
         <v>353418</v>
@@ -22046,7 +22046,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.040652424894337284</v>
+        <v>0.12225303505993265</v>
       </c>
       <c r="B26">
         <v>353418</v>
@@ -22057,7 +22057,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.06537387136537805</v>
+        <v>0.15141311232457036</v>
       </c>
       <c r="B27">
         <v>353418</v>
@@ -22068,7 +22068,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.13594947661069992</v>
+        <v>0.024356130682146506</v>
       </c>
       <c r="B28">
         <v>353418</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.08330667181442045</v>
+        <v>0.012938036301711607</v>
       </c>
       <c r="B29">
         <v>353418</v>
@@ -22090,7 +22090,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.04925140570819379</v>
+        <v>0.049597118440128235</v>
       </c>
       <c r="B30">
         <v>353418</v>
@@ -22101,7 +22101,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.02322688076395279</v>
+        <v>0.11398754846048278</v>
       </c>
       <c r="B31">
         <v>353418</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.15650039336127536</v>
+        <v>0.01604323779733965</v>
       </c>
       <c r="B32">
         <v>353418</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.030305811463939524</v>
+        <v>0.3692385731453665</v>
       </c>
       <c r="B33">
         <v>353418</v>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.12740379639392932</v>
+        <v>0.017043768965737387</v>
       </c>
       <c r="B34">
         <v>353418</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.026154569606085237</v>
+        <v>0.026441243069065364</v>
       </c>
       <c r="B35">
         <v>353418</v>
@@ -22156,7 +22156,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.011203834912051763</v>
+        <v>0.26633161238568925</v>
       </c>
       <c r="B36">
         <v>353418</v>
@@ -22167,7 +22167,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.023358075810000035</v>
+        <v>0.05514342063461735</v>
       </c>
       <c r="B37">
         <v>353418</v>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.021895271705925062</v>
+        <v>0.011079288020967281</v>
       </c>
       <c r="B38">
         <v>353418</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.006277638979641806</v>
+        <v>0.021944123614319584</v>
       </c>
       <c r="B39">
         <v>353418</v>
@@ -22200,7 +22200,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.19227587394257414</v>
+        <v>0.04203260977296237</v>
       </c>
       <c r="B40">
         <v>353418</v>
@@ -22211,7 +22211,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.03936428630062294</v>
+        <v>0.04322089100286412</v>
       </c>
       <c r="B41">
         <v>353418</v>
@@ -22222,7 +22222,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.08415322266261403</v>
+        <v>0.024479748568577594</v>
       </c>
       <c r="B42">
         <v>353418</v>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.019372926656088404</v>
+        <v>0.04369284193108177</v>
       </c>
       <c r="B43">
         <v>353418</v>
@@ -22244,7 +22244,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.07456177856976402</v>
+        <v>0.018897508105964234</v>
       </c>
       <c r="B44">
         <v>353418</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.05207639526356485</v>
+        <v>0.014443649122575532</v>
       </c>
       <c r="B45">
         <v>353418</v>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.026153177765148555</v>
+        <v>0.02962304956656855</v>
       </c>
       <c r="B46">
         <v>353418</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.024284847240202273</v>
+        <v>0.05360014839915976</v>
       </c>
       <c r="B47">
         <v>353418</v>
@@ -22288,7 +22288,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.04807777859743736</v>
+        <v>0.11203072825529067</v>
       </c>
       <c r="B48">
         <v>353418</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.10122528595190335</v>
+        <v>0.009093187349887386</v>
       </c>
       <c r="B49">
         <v>353418</v>
@@ -22310,7 +22310,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.16420532850413447</v>
+        <v>0.011667195300924568</v>
       </c>
       <c r="B50">
         <v>353418</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.032223194027848276</v>
+        <v>0.07291178278864639</v>
       </c>
       <c r="B51">
         <v>353418</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.08457590443008701</v>
+        <v>0.11372925023804246</v>
       </c>
       <c r="B52">
         <v>353418</v>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.1536308302650587</v>
+        <v>0.05132120187511811</v>
       </c>
       <c r="B53">
         <v>353418</v>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.02611096483998036</v>
+        <v>0.011000005284736044</v>
       </c>
       <c r="B54">
         <v>353418</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.04459145281966362</v>
+        <v>0.011722501621749142</v>
       </c>
       <c r="B55">
         <v>353418</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.06417460275165116</v>
+        <v>0.021197813191619178</v>
       </c>
       <c r="B56">
         <v>353418</v>
@@ -22387,7 +22387,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.01389889448133944</v>
+        <v>0.020732105671012416</v>
       </c>
       <c r="B57">
         <v>353418</v>
@@ -22398,7 +22398,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.0424546104895147</v>
+        <v>0.06565545675776731</v>
       </c>
       <c r="B58">
         <v>353418</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.008912166919124937</v>
+        <v>0.0409696736020205</v>
       </c>
       <c r="B59">
         <v>353418</v>
@@ -22420,7 +22420,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.022134200673154643</v>
+        <v>0.01836654313523622</v>
       </c>
       <c r="B60">
         <v>353418</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.032944861414040315</v>
+        <v>0.11138058268439191</v>
       </c>
       <c r="B61">
         <v>353418</v>
@@ -22442,7 +22442,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.0075987359200399</v>
+        <v>0.07115799172307168</v>
       </c>
       <c r="B62">
         <v>353418</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.02604973327699385</v>
+        <v>0.03705430446207749</v>
       </c>
       <c r="B63">
         <v>353418</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.08264690833439874</v>
+        <v>0.0059812646686870875</v>
       </c>
       <c r="B64">
         <v>353418</v>
@@ -22475,7 +22475,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.010334789864892896</v>
+        <v>0.01800490397687418</v>
       </c>
       <c r="B65">
         <v>353418</v>
@@ -22486,7 +22486,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.05668146826148255</v>
+        <v>0.007845642320560267</v>
       </c>
       <c r="B66">
         <v>353418</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.08735026088949878</v>
+        <v>0.05132623360214658</v>
       </c>
       <c r="B67">
         <v>353418</v>
@@ -22508,7 +22508,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.02999556366587612</v>
+        <v>0.0769262414128374</v>
       </c>
       <c r="B68">
         <v>353418</v>
@@ -22519,7 +22519,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.055765043222899144</v>
+        <v>0.15182492959898297</v>
       </c>
       <c r="B69">
         <v>353418</v>
@@ -22530,7 +22530,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.05378767294106599</v>
+        <v>0.0409549391772881</v>
       </c>
       <c r="B70">
         <v>353418</v>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.052047693520546924</v>
+        <v>0.07186233783059115</v>
       </c>
       <c r="B71">
         <v>353418</v>
@@ -22552,7 +22552,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.010918830352496547</v>
+        <v>0.27548697858348414</v>
       </c>
       <c r="B72">
         <v>353418</v>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.06489350294557572</v>
+        <v>0.05993501819552812</v>
       </c>
       <c r="B73">
         <v>353418</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.024409334581670283</v>
+        <v>0.03517773501835886</v>
       </c>
       <c r="B74">
         <v>353418</v>
@@ -22585,7 +22585,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0916787180958855</v>
+        <v>0.007177023003610576</v>
       </c>
       <c r="B75">
         <v>353418</v>
@@ -22596,7 +22596,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.0509745356858431</v>
+        <v>0.16522513823990423</v>
       </c>
       <c r="B76">
         <v>353418</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.07568264239401017</v>
+        <v>0.018846466713162525</v>
       </c>
       <c r="B77">
         <v>353418</v>
@@ -22618,7 +22618,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.04707590835625242</v>
+        <v>0.08514545747840203</v>
       </c>
       <c r="B78">
         <v>353418</v>
@@ -22629,7 +22629,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.3018233912963469</v>
+        <v>0.018100923900678554</v>
       </c>
       <c r="B79">
         <v>353418</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.024394207994541655</v>
+        <v>0.01277281155172936</v>
       </c>
       <c r="B80">
         <v>353418</v>
@@ -22651,7 +22651,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.08009428295136714</v>
+        <v>0.021441541495591805</v>
       </c>
       <c r="B81">
         <v>353418</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.015223774943810029</v>
+        <v>0.03733228577803295</v>
       </c>
       <c r="B82">
         <v>353418</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.026141421655432085</v>
+        <v>0.02459578001384139</v>
       </c>
       <c r="B83">
         <v>353418</v>
@@ -22684,7 +22684,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.06954047571072756</v>
+        <v>0.11425274135148913</v>
       </c>
       <c r="B84">
         <v>353418</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.04509844701730909</v>
+        <v>0.09508339831218397</v>
       </c>
       <c r="B85">
         <v>353418</v>
@@ -22706,7 +22706,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.017130333353313133</v>
+        <v>0.010500042687700578</v>
       </c>
       <c r="B86">
         <v>353418</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.04729413073635292</v>
+        <v>0.07046477450409029</v>
       </c>
       <c r="B87">
         <v>353418</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.009259744027523963</v>
+        <v>0.033444653532295615</v>
       </c>
       <c r="B88">
         <v>353418</v>
@@ -22739,7 +22739,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.0851934884939067</v>
+        <v>0.020296567830604868</v>
       </c>
       <c r="B89">
         <v>353418</v>
@@ -22750,7 +22750,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.01298013467460845</v>
+        <v>0.08114190007272257</v>
       </c>
       <c r="B90">
         <v>353418</v>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.05956304059798735</v>
+        <v>0.11113121443236619</v>
       </c>
       <c r="B91">
         <v>353418</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.30183712304735916</v>
+        <v>0.04528769152361921</v>
       </c>
       <c r="B92">
         <v>353418</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.09701775056503395</v>
+        <v>0.02185479379178803</v>
       </c>
       <c r="B93">
         <v>353418</v>
@@ -22794,7 +22794,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.06046186536275807</v>
+        <v>0.027638012625344294</v>
       </c>
       <c r="B94">
         <v>353418</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.011683918650054168</v>
+        <v>0.0357908717699121</v>
       </c>
       <c r="B95">
         <v>353418</v>
@@ -22816,7 +22816,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.07430475245720235</v>
+        <v>0.027140857073444782</v>
       </c>
       <c r="B96">
         <v>353418</v>
@@ -22827,7 +22827,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.07476434408900029</v>
+        <v>0.01839324868438043</v>
       </c>
       <c r="B97">
         <v>353418</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.04712060607439017</v>
+        <v>0.05632808512981291</v>
       </c>
       <c r="B98">
         <v>353418</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.07206358888716922</v>
+        <v>0.050489554370920876</v>
       </c>
       <c r="B99">
         <v>353418</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.3015705619441983</v>
+        <v>0.14769428117934805</v>
       </c>
       <c r="B100">
         <v>353418</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.0176873966392653</v>
+        <v>0.024141885389530948</v>
       </c>
       <c r="B101">
         <v>353418</v>
